--- a/Midterm-exam/evidence/spreadsheets/per_site/www.asker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.asker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9932.55355</v>
+        <v>4170.4648799999995</v>
       </c>
       <c r="C2">
-        <v>2471.22934</v>
+        <v>1601.1999599999997</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>9975.616335000002</v>
+        <v>8340.528974000003</v>
       </c>
       <c r="F2">
-        <v>187</v>
+        <v>59.5</v>
       </c>
       <c r="G2">
-        <v>0.00760218568117225</v>
+        <v>0.006885220650110133</v>
       </c>
       <c r="H2">
-        <v>4279.020316165539</v>
+        <v>2973.020977085258</v>
       </c>
       <c r="I2">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J2">
-        <v>1183823</v>
+        <v>1199410</v>
       </c>
       <c r="K2">
         <v>63</v>
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3501.0758000000005</v>
+        <v>10410.650149999998</v>
       </c>
       <c r="C3">
-        <v>1594.98472</v>
+        <v>7148.03923</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>8175.871238</v>
+        <v>10460.757302999999</v>
       </c>
       <c r="F3">
-        <v>51.5</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>0.006885220650110133</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3229.9831486016333</v>
+        <v>7148.03923</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>1184238</v>
+        <v>1184439</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10420.44989</v>
+        <v>4390.240999999999</v>
       </c>
       <c r="C4">
-        <v>7118.0851299999995</v>
+        <v>1611.1955999999996</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>10473.899295</v>
+        <v>8369.340880000002</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>48.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.006943541535801527</v>
       </c>
       <c r="H4">
-        <v>7118.0851299999995</v>
+        <v>3232.574105544841</v>
       </c>
       <c r="I4">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>1184038</v>
+        <v>1184173</v>
       </c>
       <c r="K4">
         <v>63</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>9932.55355</v>
+        <v>4390.240999999999</v>
       </c>
       <c r="C5">
-        <v>2471.22934</v>
+        <v>1611.1955999999996</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>9975.616335000002</v>
+        <v>8369.340880000002</v>
       </c>
       <c r="F5">
-        <v>99.5</v>
+        <v>59.5</v>
       </c>
       <c r="G5">
         <v>0.006885220650110133</v>
       </c>
       <c r="H5">
-        <v>4279.020316165539</v>
+        <v>3232.574105544841</v>
       </c>
       <c r="I5">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J5">
-        <v>1184038</v>
+        <v>1184439</v>
       </c>
       <c r="K5">
         <v>63</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>13654</v>
+        <v>13773</v>
       </c>
       <c r="F2">
-        <v>51754</v>
+        <v>51676</v>
       </c>
       <c r="G2">
-        <v>0.003970760701999999</v>
+        <v>0.004005367449</v>
       </c>
       <c r="H2">
-        <v>0.0052305934356</v>
+        <v>0.0052761801222</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E3">
-        <v>26638</v>
+        <v>26639</v>
       </c>
       <c r="F3">
         <v>26276</v>
       </c>
       <c r="G3">
-        <v>0.007746676693999999</v>
+        <v>0.007746967507</v>
       </c>
       <c r="H3">
-        <v>0.010204522333200003</v>
+        <v>0.0102049054146</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E4">
-        <v>22036</v>
+        <v>22041</v>
       </c>
       <c r="F4">
         <v>21684</v>
       </c>
       <c r="G4">
-        <v>0.006408355267999999</v>
+        <v>0.006409809332999999</v>
       </c>
       <c r="H4">
-        <v>0.008441581730400001</v>
+        <v>0.0084434971374</v>
       </c>
     </row>
     <row r="5">
@@ -712,16 +712,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E5">
-        <v>27247</v>
+        <v>27255</v>
       </c>
       <c r="F5">
         <v>26900</v>
       </c>
       <c r="G5">
-        <v>0.007923781811</v>
+        <v>0.007926108315</v>
       </c>
       <c r="H5">
-        <v>0.0104378189058</v>
+        <v>0.010440883557000001</v>
       </c>
     </row>
     <row r="6">
@@ -738,16 +738,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E6">
-        <v>22567</v>
+        <v>22568</v>
       </c>
       <c r="F6">
         <v>22212</v>
       </c>
       <c r="G6">
-        <v>0.006562776970999999</v>
+        <v>0.006563067783999999</v>
       </c>
       <c r="H6">
-        <v>0.008644997953800002</v>
+        <v>0.008645381035200001</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E7">
-        <v>29887</v>
+        <v>29890</v>
       </c>
       <c r="F7">
         <v>29500</v>
       </c>
       <c r="G7">
-        <v>0.008691528130999998</v>
+        <v>0.00869240057</v>
       </c>
       <c r="H7">
-        <v>0.011449153801800002</v>
+        <v>0.011450303046000001</v>
       </c>
     </row>
     <row r="8">
@@ -790,16 +790,16 @@
         <v>text/css</v>
       </c>
       <c r="E8">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="F8">
         <v>10537</v>
       </c>
       <c r="G8">
-        <v>0.0008494647729999999</v>
+        <v>0.0008485923339999999</v>
       </c>
       <c r="H8">
-        <v>0.0011189807694000002</v>
+        <v>0.0011178315252000001</v>
       </c>
     </row>
     <row r="9">
@@ -816,16 +816,16 @@
         <v>text/css</v>
       </c>
       <c r="E9">
-        <v>36207</v>
+        <v>36217</v>
       </c>
       <c r="F9">
         <v>258216</v>
       </c>
       <c r="G9">
-        <v>0.010529466290999998</v>
+        <v>0.010532374420999998</v>
       </c>
       <c r="H9">
-        <v>0.0138702282498</v>
+        <v>0.013874059063800001</v>
       </c>
     </row>
     <row r="10">
@@ -842,16 +842,16 @@
         <v>text/css</v>
       </c>
       <c r="E10">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F10">
         <v>7645</v>
       </c>
       <c r="G10">
-        <v>0.00045890291399999994</v>
+        <v>0.00045919372699999996</v>
       </c>
       <c r="H10">
-        <v>0.0006045024492</v>
+        <v>0.0006048855306</v>
       </c>
     </row>
     <row r="11">
@@ -868,16 +868,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E11">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F11">
         <v>6167</v>
       </c>
       <c r="G11">
-        <v>0.0008081693269999999</v>
+        <v>0.0008078785139999999</v>
       </c>
       <c r="H11">
-        <v>0.0010645832106000001</v>
+        <v>0.0010642001292</v>
       </c>
     </row>
     <row r="12">
@@ -894,16 +894,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E12">
-        <v>113258</v>
+        <v>113268</v>
       </c>
       <c r="F12">
         <v>112831</v>
       </c>
       <c r="G12">
-        <v>0.032936898754</v>
+        <v>0.03293980688399999</v>
       </c>
       <c r="H12">
-        <v>0.043387033201200007</v>
+        <v>0.0433908640152</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>image/webp</v>
       </c>
       <c r="E13">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F13">
         <v>978</v>
       </c>
       <c r="G13">
-        <v>0.00040452088299999995</v>
+        <v>0.00040423006999999993</v>
       </c>
       <c r="H13">
-        <v>0.0005328662274000001</v>
+        <v>0.0005324831460000001</v>
       </c>
     </row>
     <row r="14">
@@ -972,16 +972,16 @@
         <v>image/webp</v>
       </c>
       <c r="E15">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="F15">
         <v>2350</v>
       </c>
       <c r="G15">
-        <v>0.0008043887579999999</v>
+        <v>0.0008046795709999999</v>
       </c>
       <c r="H15">
-        <v>0.0010596031524</v>
+        <v>0.0010599862338000002</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>image/webp</v>
       </c>
       <c r="E16">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="F16">
         <v>3720</v>
       </c>
       <c r="G16">
-        <v>0.0012013485029999998</v>
+        <v>0.0012010576899999998</v>
       </c>
       <c r="H16">
-        <v>0.0015825092634000001</v>
+        <v>0.0015821261820000002</v>
       </c>
     </row>
     <row r="17">
@@ -1102,16 +1102,16 @@
         <v>image/webp</v>
       </c>
       <c r="E20">
-        <v>3646</v>
+        <v>3648</v>
       </c>
       <c r="F20">
         <v>3226</v>
       </c>
       <c r="G20">
-        <v>0.001060304198</v>
+        <v>0.0010608858239999999</v>
       </c>
       <c r="H20">
-        <v>0.0013967147843999999</v>
+        <v>0.0013974809472</v>
       </c>
     </row>
     <row r="21">
@@ -1128,16 +1128,16 @@
         <v>image/webp</v>
       </c>
       <c r="E21">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="F21">
         <v>5042</v>
       </c>
       <c r="G21">
-        <v>0.0015855124759999997</v>
+        <v>0.0015852216629999997</v>
       </c>
       <c r="H21">
-        <v>0.0020885597928</v>
+        <v>0.0020881767114000003</v>
       </c>
     </row>
     <row r="22">
@@ -1154,16 +1154,16 @@
         <v>image/webp</v>
       </c>
       <c r="E22">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="F22">
         <v>4106</v>
       </c>
       <c r="G22">
-        <v>0.0013133115079999999</v>
+        <v>0.0013136023209999999</v>
       </c>
       <c r="H22">
-        <v>0.0017299956024000001</v>
+        <v>0.0017303786838000002</v>
       </c>
     </row>
     <row r="23">
@@ -1180,16 +1180,16 @@
         <v>image/webp</v>
       </c>
       <c r="E23">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="F23">
         <v>4452</v>
       </c>
       <c r="G23">
-        <v>0.001414514432</v>
+        <v>0.0014150960579999998</v>
       </c>
       <c r="H23">
-        <v>0.0018633079296</v>
+        <v>0.0018640740923999998</v>
       </c>
     </row>
     <row r="24">
@@ -1232,16 +1232,16 @@
         <v>image/webp</v>
       </c>
       <c r="E25">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="F25">
         <v>4382</v>
       </c>
       <c r="G25">
-        <v>0.0013964840259999998</v>
+        <v>0.0013970656519999998</v>
       </c>
       <c r="H25">
-        <v>0.0018395568828000002</v>
+        <v>0.0018403230456000004</v>
       </c>
     </row>
     <row r="26">
@@ -1258,16 +1258,16 @@
         <v>image/webp</v>
       </c>
       <c r="E26">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F26">
         <v>1624</v>
       </c>
       <c r="G26">
-        <v>0.0005941309589999999</v>
+        <v>0.0005938401459999998</v>
       </c>
       <c r="H26">
-        <v>0.0007826353002000001</v>
+        <v>0.0007822522188</v>
       </c>
     </row>
     <row r="27">
@@ -1284,16 +1284,16 @@
         <v>image/webp</v>
       </c>
       <c r="E27">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="F27">
         <v>2656</v>
       </c>
       <c r="G27">
-        <v>0.0008942499749999999</v>
+        <v>0.0008948316009999999</v>
       </c>
       <c r="H27">
-        <v>0.0011779753050000002</v>
+        <v>0.0011787414678000002</v>
       </c>
     </row>
     <row r="28">
@@ -1310,16 +1310,16 @@
         <v>image/webp</v>
       </c>
       <c r="E28">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="F28">
         <v>3384</v>
       </c>
       <c r="G28">
-        <v>0.0011042169609999997</v>
+        <v>0.0011039261479999997</v>
       </c>
       <c r="H28">
-        <v>0.0014545600757999999</v>
+        <v>0.0014541769944</v>
       </c>
     </row>
     <row r="29">
@@ -1336,16 +1336,16 @@
         <v>image/webp</v>
       </c>
       <c r="E29">
-        <v>3898</v>
+        <v>3900</v>
       </c>
       <c r="F29">
         <v>3490</v>
       </c>
       <c r="G29">
-        <v>0.0011335890739999999</v>
+        <v>0.0011341707</v>
       </c>
       <c r="H29">
-        <v>0.0014932512972</v>
+        <v>0.0014940174600000002</v>
       </c>
     </row>
     <row r="30">
@@ -1388,16 +1388,16 @@
         <v>image/webp</v>
       </c>
       <c r="E31">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="F31">
         <v>4674</v>
       </c>
       <c r="G31">
-        <v>0.0014773300399999998</v>
+        <v>0.0014776208529999999</v>
       </c>
       <c r="H31">
-        <v>0.001946053512</v>
+        <v>0.0019464365934000005</v>
       </c>
     </row>
     <row r="32">
@@ -1414,16 +1414,16 @@
         <v>image/webp</v>
       </c>
       <c r="E32">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="F32">
         <v>4732</v>
       </c>
       <c r="G32">
-        <v>0.001498850202</v>
+        <v>0.001497977763</v>
       </c>
       <c r="H32">
-        <v>0.0019744015356</v>
+        <v>0.0019732522914000005</v>
       </c>
     </row>
     <row r="33">
@@ -1492,16 +1492,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E35">
-        <v>32204</v>
+        <v>32205</v>
       </c>
       <c r="F35">
         <v>106622</v>
       </c>
       <c r="G35">
-        <v>0.009365341851999998</v>
+        <v>0.009365632664999998</v>
       </c>
       <c r="H35">
-        <v>0.012336753405600002</v>
+        <v>0.012337136487000001</v>
       </c>
     </row>
     <row r="36">
@@ -1518,16 +1518,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E36">
-        <v>104793</v>
+        <v>104785</v>
       </c>
       <c r="F36">
         <v>359431</v>
       </c>
       <c r="G36">
-        <v>0.030475166708999996</v>
+        <v>0.030472840204999997</v>
       </c>
       <c r="H36">
-        <v>0.040144249150200005</v>
+        <v>0.040141184499</v>
       </c>
     </row>
     <row r="37">
@@ -1544,16 +1544,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E37">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="F37">
         <v>17612</v>
       </c>
       <c r="G37">
-        <v>0.0018931926299999998</v>
+        <v>0.0018929018169999998</v>
       </c>
       <c r="H37">
-        <v>0.0024938599140000004</v>
+        <v>0.0024934768326</v>
       </c>
     </row>
     <row r="38">
@@ -1674,16 +1674,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E42">
-        <v>104093</v>
+        <v>104282</v>
       </c>
       <c r="F42">
-        <v>293262</v>
+        <v>293586</v>
       </c>
       <c r="G42">
-        <v>0.030271597608999997</v>
+        <v>0.030326561265999995</v>
       </c>
       <c r="H42">
-        <v>0.03987609217020001</v>
+        <v>0.039948494554800006</v>
       </c>
     </row>
     <row r="43">
@@ -1726,16 +1726,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E44">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F44">
         <v>591</v>
       </c>
       <c r="G44">
-        <v>0.00022276275799999997</v>
+        <v>0.00022247194499999998</v>
       </c>
       <c r="H44">
-        <v>0.0002934403524</v>
+        <v>0.00029305727100000005</v>
       </c>
     </row>
     <row r="45">
@@ -1778,16 +1778,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E46">
-        <v>12386</v>
+        <v>12385</v>
       </c>
       <c r="F46">
         <v>41113</v>
       </c>
       <c r="G46">
-        <v>0.0036020098179999995</v>
+        <v>0.0036017190049999993</v>
       </c>
       <c r="H46">
-        <v>0.0047448462204</v>
+        <v>0.004744463139</v>
       </c>
     </row>
     <row r="47">
@@ -1804,16 +1804,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E47">
-        <v>13745</v>
+        <v>13748</v>
       </c>
       <c r="F47">
         <v>45002</v>
       </c>
       <c r="G47">
-        <v>0.003997224684999999</v>
+        <v>0.0039980971239999994</v>
       </c>
       <c r="H47">
-        <v>0.005265453843</v>
+        <v>0.0052666030872</v>
       </c>
     </row>
     <row r="48">
@@ -1830,16 +1830,16 @@
         <v>text/css</v>
       </c>
       <c r="E48">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F48">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G48">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H48">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="49">
@@ -1856,16 +1856,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E49">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F49">
         <v>1249958</v>
       </c>
       <c r="G49">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H49">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="50">
@@ -1873,25 +1873,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
       </c>
       <c r="C50" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D50" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E50">
-        <v>3186</v>
+        <v>2583</v>
       </c>
       <c r="F50">
-        <v>2812</v>
+        <v>5381</v>
       </c>
       <c r="G50">
-        <v>0.000926530218</v>
+        <v>0.0007511699789999999</v>
       </c>
       <c r="H50">
-        <v>0.0012204973404000001</v>
+        <v>0.0009894992562</v>
       </c>
     </row>
     <row r="51">
@@ -1899,25 +1899,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
       </c>
       <c r="C51" t="str">
-        <v>Document</v>
+        <v>XHR</v>
       </c>
       <c r="D51" t="str">
-        <v>text/html</v>
+        <v>application/json</v>
       </c>
       <c r="E51">
-        <v>3010</v>
+        <v>3186</v>
       </c>
       <c r="F51">
-        <v>8796</v>
+        <v>2812</v>
       </c>
       <c r="G51">
-        <v>0.0008753471299999999</v>
+        <v>0.000926530218</v>
       </c>
       <c r="H51">
-        <v>0.001153075014</v>
+        <v>0.0012204973404000001</v>
       </c>
     </row>
     <row r="52">
@@ -1925,25 +1925,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C52" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D52" t="str">
-        <v>application/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E52">
-        <v>14470</v>
+        <v>3010</v>
       </c>
       <c r="F52">
-        <v>147236</v>
+        <v>8796</v>
       </c>
       <c r="G52">
-        <v>0.00420806411</v>
+        <v>0.0008753471299999999</v>
       </c>
       <c r="H52">
-        <v>0.0055431878580000015</v>
+        <v>0.001153075014</v>
       </c>
     </row>
     <row r="53">
@@ -1951,25 +1951,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=447&amp;luid=8a7fa4ac-19c9-f031-52d3-7d038809818a&amp;prev=f296f59d-5c4e-f04e-2c98-9deb7d55db5c&amp;rnd=42397</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
       </c>
       <c r="C53" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D53" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E53">
-        <v>210</v>
+        <v>14495</v>
       </c>
       <c r="F53">
-        <v>34</v>
+        <v>147236</v>
       </c>
       <c r="G53">
-        <v>0.00006107072999999999</v>
+        <v>0.004215334435</v>
       </c>
       <c r="H53">
-        <v>0.00008044709400000001</v>
+        <v>0.005552764893</v>
       </c>
     </row>
     <row r="54">
@@ -1977,25 +1977,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=457&amp;luid=4fe4b56d-ae18-4aec-b001-5328d9325723&amp;prev=7bdf8b78-f080-2528-a554-6685fad316ea&amp;rnd=66550</v>
       </c>
       <c r="C54" t="str">
-        <v>Manifest</v>
+        <v>Image</v>
       </c>
       <c r="D54" t="str">
-        <v>application/manifest+json</v>
+        <v>image/gif</v>
       </c>
       <c r="E54">
-        <v>769</v>
+        <v>210</v>
       </c>
       <c r="F54">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>0.00022363519699999997</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H54">
-        <v>0.00029458959660000003</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="55">
@@ -2003,25 +2003,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
       </c>
       <c r="C55" t="str">
-        <v>Script</v>
+        <v>Manifest</v>
       </c>
       <c r="D55" t="str">
-        <v>application/x-javascript</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E55">
-        <v>31467</v>
+        <v>771</v>
       </c>
       <c r="F55">
-        <v>100355</v>
+        <v>478</v>
       </c>
       <c r="G55">
-        <v>0.009151012670999999</v>
+        <v>0.00022421682299999997</v>
       </c>
       <c r="H55">
-        <v>0.012054422413800002</v>
+        <v>0.00029535575940000004</v>
       </c>
     </row>
     <row r="56">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
       </c>
       <c r="C56" t="str">
         <v>Script</v>
@@ -2038,16 +2038,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E56">
-        <v>752</v>
+        <v>31467</v>
       </c>
       <c r="F56">
-        <v>372</v>
+        <v>100355</v>
       </c>
       <c r="G56">
-        <v>0.00021869137599999996</v>
+        <v>0.009151012670999999</v>
       </c>
       <c r="H56">
-        <v>0.0002880772128000001</v>
+        <v>0.012054422413800002</v>
       </c>
     </row>
     <row r="57">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
       </c>
       <c r="C57" t="str">
         <v>Script</v>
@@ -2064,16 +2064,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E57">
-        <v>19979</v>
+        <v>752</v>
       </c>
       <c r="F57">
-        <v>60972</v>
+        <v>372</v>
       </c>
       <c r="G57">
-        <v>0.005810152926999999</v>
+        <v>0.00021869137599999996</v>
       </c>
       <c r="H57">
-        <v>0.0076535832906</v>
+        <v>0.0002880772128000001</v>
       </c>
     </row>
     <row r="58">
@@ -2081,22 +2081,25 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C58" t="str">
-        <v>Preflight</v>
+        <v>Script</v>
       </c>
       <c r="D58" t="str">
-        <v/>
+        <v>application/x-javascript</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>19979</v>
+      </c>
+      <c r="F58">
+        <v>60972</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="59">
@@ -2107,22 +2110,19 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C59" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D59" t="str">
-        <v>text/json</v>
+        <v/>
       </c>
       <c r="E59">
-        <v>7412</v>
-      </c>
-      <c r="F59">
-        <v>28951</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.0021555059559999995</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.0028393993368000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2130,25 +2130,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C60" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D60" t="str">
-        <v>image/svg+xml</v>
+        <v>text/json</v>
       </c>
       <c r="E60">
-        <v>10388</v>
+        <v>7413</v>
       </c>
       <c r="F60">
-        <v>25100</v>
+        <v>28951</v>
       </c>
       <c r="G60">
-        <v>0.0030209654439999995</v>
+        <v>0.0021557967689999997</v>
       </c>
       <c r="H60">
-        <v>0.003979449583200001</v>
+        <v>0.0028397824181999997</v>
       </c>
     </row>
     <row r="61">
@@ -2156,25 +2156,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
       </c>
       <c r="C61" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D61" t="str">
-        <v>image/webp</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E61">
-        <v>1237</v>
+        <v>25478</v>
       </c>
       <c r="F61">
-        <v>826</v>
+        <v>25100</v>
       </c>
       <c r="G61">
-        <v>0.00035973568099999996</v>
+        <v>0.007409333613999999</v>
       </c>
       <c r="H61">
-        <v>0.00047387169180000016</v>
+        <v>0.0097601479092</v>
       </c>
     </row>
     <row r="62">
@@ -2182,22 +2182,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
       </c>
       <c r="C62" t="str">
-        <v>Preflight</v>
+        <v>Other</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1239</v>
+      </c>
+      <c r="F62">
+        <v>826</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.000360317307</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.00047463785459999995</v>
       </c>
     </row>
     <row r="63">
@@ -2231,25 +2234,22 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C64" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D64" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E64">
-        <v>2583</v>
-      </c>
-      <c r="F64">
-        <v>5381</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.0007511699789999999</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.0009894992562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2266,16 +2266,16 @@
         <v>text/html</v>
       </c>
       <c r="E65">
-        <v>13651</v>
+        <v>13775</v>
       </c>
       <c r="F65">
-        <v>51754</v>
+        <v>51676</v>
       </c>
       <c r="G65">
-        <v>0.003969888263</v>
+        <v>0.004005949074999999</v>
       </c>
       <c r="H65">
-        <v>0.005229444191400001</v>
+        <v>0.005276946285</v>
       </c>
     </row>
     <row r="66">
@@ -2292,16 +2292,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E66">
-        <v>26635</v>
+        <v>26660</v>
       </c>
       <c r="F66">
         <v>26276</v>
       </c>
       <c r="G66">
-        <v>0.007745804255</v>
+        <v>0.007753074579999999</v>
       </c>
       <c r="H66">
-        <v>0.010203373089</v>
+        <v>0.010212950124</v>
       </c>
     </row>
     <row r="67">
@@ -2318,16 +2318,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E67">
-        <v>22036</v>
+        <v>22037</v>
       </c>
       <c r="F67">
         <v>21684</v>
       </c>
       <c r="G67">
-        <v>0.006408355267999999</v>
+        <v>0.006408646080999999</v>
       </c>
       <c r="H67">
-        <v>0.008441581730400001</v>
+        <v>0.008441964811800002</v>
       </c>
     </row>
     <row r="68">
@@ -2344,16 +2344,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E68">
-        <v>27253</v>
+        <v>27268</v>
       </c>
       <c r="F68">
         <v>26900</v>
       </c>
       <c r="G68">
-        <v>0.007925526688999998</v>
+        <v>0.007929888884</v>
       </c>
       <c r="H68">
-        <v>0.010440117394200001</v>
+        <v>0.010445863615200002</v>
       </c>
     </row>
     <row r="69">
@@ -2370,16 +2370,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E69">
-        <v>22567</v>
+        <v>22564</v>
       </c>
       <c r="F69">
         <v>22212</v>
       </c>
       <c r="G69">
-        <v>0.006562776970999999</v>
+        <v>0.006561904531999999</v>
       </c>
       <c r="H69">
-        <v>0.008644997953800002</v>
+        <v>0.0086438487096</v>
       </c>
     </row>
     <row r="70">
@@ -2396,16 +2396,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E70">
-        <v>29886</v>
+        <v>29893</v>
       </c>
       <c r="F70">
         <v>29500</v>
       </c>
       <c r="G70">
-        <v>0.008691237317999999</v>
+        <v>0.008693273008999998</v>
       </c>
       <c r="H70">
-        <v>0.011448770720400002</v>
+        <v>0.0114514522902</v>
       </c>
     </row>
     <row r="71">
@@ -2422,16 +2422,16 @@
         <v>text/css</v>
       </c>
       <c r="E71">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="F71">
         <v>10537</v>
       </c>
       <c r="G71">
-        <v>0.0008485923339999999</v>
+        <v>0.0008494647729999999</v>
       </c>
       <c r="H71">
-        <v>0.0011178315252000001</v>
+        <v>0.0011189807694000002</v>
       </c>
     </row>
     <row r="72">
@@ -2448,16 +2448,16 @@
         <v>text/css</v>
       </c>
       <c r="E72">
-        <v>36205</v>
+        <v>36223</v>
       </c>
       <c r="F72">
         <v>258216</v>
       </c>
       <c r="G72">
-        <v>0.010528884664999998</v>
+        <v>0.010534119298999998</v>
       </c>
       <c r="H72">
-        <v>0.013869462087000003</v>
+        <v>0.0138763575522</v>
       </c>
     </row>
     <row r="73">
@@ -2474,16 +2474,16 @@
         <v>text/css</v>
       </c>
       <c r="E73">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F73">
         <v>7645</v>
       </c>
       <c r="G73">
-        <v>0.00045890291399999994</v>
+        <v>0.00045919372699999996</v>
       </c>
       <c r="H73">
-        <v>0.0006045024492</v>
+        <v>0.0006048855306</v>
       </c>
     </row>
     <row r="74">
@@ -2500,16 +2500,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E74">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F74">
         <v>6167</v>
       </c>
       <c r="G74">
-        <v>0.0008078785139999999</v>
+        <v>0.0008075877009999999</v>
       </c>
       <c r="H74">
-        <v>0.0010642001292</v>
+        <v>0.0010638170478</v>
       </c>
     </row>
     <row r="75">
@@ -2526,16 +2526,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>113265</v>
+        <v>113258</v>
       </c>
       <c r="F75">
         <v>112831</v>
       </c>
       <c r="G75">
-        <v>0.032938934445</v>
+        <v>0.032936898754</v>
       </c>
       <c r="H75">
-        <v>0.043389714771</v>
+        <v>0.043387033201200007</v>
       </c>
     </row>
     <row r="76">
@@ -2552,16 +2552,16 @@
         <v>image/webp</v>
       </c>
       <c r="E76">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F76">
         <v>978</v>
       </c>
       <c r="G76">
-        <v>0.00040452088299999995</v>
+        <v>0.00040423006999999993</v>
       </c>
       <c r="H76">
-        <v>0.0005328662274000001</v>
+        <v>0.0005324831460000001</v>
       </c>
     </row>
     <row r="77">
@@ -2604,16 +2604,16 @@
         <v>image/webp</v>
       </c>
       <c r="E78">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="F78">
         <v>2350</v>
       </c>
       <c r="G78">
-        <v>0.0008043887579999999</v>
+        <v>0.0008046795709999999</v>
       </c>
       <c r="H78">
-        <v>0.0010596031524</v>
+        <v>0.0010599862338000002</v>
       </c>
     </row>
     <row r="79">
@@ -2630,16 +2630,16 @@
         <v>image/webp</v>
       </c>
       <c r="E79">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="F79">
         <v>3720</v>
       </c>
       <c r="G79">
-        <v>0.0012013485029999998</v>
+        <v>0.0012010576899999998</v>
       </c>
       <c r="H79">
-        <v>0.0015825092634000001</v>
+        <v>0.0015821261820000002</v>
       </c>
     </row>
     <row r="80">
@@ -2656,16 +2656,16 @@
         <v>image/webp</v>
       </c>
       <c r="E80">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="F80">
         <v>3350</v>
       </c>
       <c r="G80">
-        <v>0.0010928752539999997</v>
+        <v>0.0010937476929999998</v>
       </c>
       <c r="H80">
-        <v>0.0014396199012000003</v>
+        <v>0.0014407691454000004</v>
       </c>
     </row>
     <row r="81">
@@ -2734,16 +2734,16 @@
         <v>image/webp</v>
       </c>
       <c r="E83">
-        <v>3646</v>
+        <v>3648</v>
       </c>
       <c r="F83">
         <v>3226</v>
       </c>
       <c r="G83">
-        <v>0.001060304198</v>
+        <v>0.0010608858239999999</v>
       </c>
       <c r="H83">
-        <v>0.0013967147843999999</v>
+        <v>0.0013974809472</v>
       </c>
     </row>
     <row r="84">
@@ -2760,16 +2760,16 @@
         <v>image/webp</v>
       </c>
       <c r="E84">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="F84">
         <v>5042</v>
       </c>
       <c r="G84">
-        <v>0.0015855124759999997</v>
+        <v>0.0015852216629999997</v>
       </c>
       <c r="H84">
-        <v>0.0020885597928</v>
+        <v>0.0020881767114000003</v>
       </c>
     </row>
     <row r="85">
@@ -2786,16 +2786,16 @@
         <v>image/webp</v>
       </c>
       <c r="E85">
-        <v>4516</v>
+        <v>4523</v>
       </c>
       <c r="F85">
         <v>4106</v>
       </c>
       <c r="G85">
-        <v>0.0013133115079999999</v>
+        <v>0.0013153471989999998</v>
       </c>
       <c r="H85">
-        <v>0.0017299956024000001</v>
+        <v>0.0017326771722</v>
       </c>
     </row>
     <row r="86">
@@ -2812,16 +2812,16 @@
         <v>image/webp</v>
       </c>
       <c r="E86">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="F86">
         <v>4452</v>
       </c>
       <c r="G86">
-        <v>0.001414514432</v>
+        <v>0.0014150960579999998</v>
       </c>
       <c r="H86">
-        <v>0.0018633079296</v>
+        <v>0.0018640740923999998</v>
       </c>
     </row>
     <row r="87">
@@ -2838,16 +2838,16 @@
         <v>image/webp</v>
       </c>
       <c r="E87">
-        <v>4530</v>
+        <v>4533</v>
       </c>
       <c r="F87">
         <v>4116</v>
       </c>
       <c r="G87">
-        <v>0.0013173828899999999</v>
+        <v>0.001318255329</v>
       </c>
       <c r="H87">
-        <v>0.0017353587420000003</v>
+        <v>0.0017365079862000001</v>
       </c>
     </row>
     <row r="88">
@@ -2864,16 +2864,16 @@
         <v>image/webp</v>
       </c>
       <c r="E88">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="F88">
         <v>4382</v>
       </c>
       <c r="G88">
-        <v>0.0013964840259999998</v>
+        <v>0.0013970656519999998</v>
       </c>
       <c r="H88">
-        <v>0.0018395568828000002</v>
+        <v>0.0018403230456000004</v>
       </c>
     </row>
     <row r="89">
@@ -2890,16 +2890,16 @@
         <v>image/webp</v>
       </c>
       <c r="E89">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F89">
         <v>1624</v>
       </c>
       <c r="G89">
-        <v>0.0005941309589999999</v>
+        <v>0.0005938401459999998</v>
       </c>
       <c r="H89">
-        <v>0.0007826353002000001</v>
+        <v>0.0007822522188</v>
       </c>
     </row>
     <row r="90">
@@ -2916,16 +2916,16 @@
         <v>image/webp</v>
       </c>
       <c r="E90">
-        <v>3075</v>
+        <v>3080</v>
       </c>
       <c r="F90">
         <v>2656</v>
       </c>
       <c r="G90">
-        <v>0.0008942499749999999</v>
+        <v>0.0008957040399999998</v>
       </c>
       <c r="H90">
-        <v>0.0011779753050000002</v>
+        <v>0.001179890712</v>
       </c>
     </row>
     <row r="91">
@@ -2942,16 +2942,16 @@
         <v>image/webp</v>
       </c>
       <c r="E91">
-        <v>3797</v>
+        <v>3799</v>
       </c>
       <c r="F91">
         <v>3384</v>
       </c>
       <c r="G91">
-        <v>0.0011042169609999997</v>
+        <v>0.0011047985869999998</v>
       </c>
       <c r="H91">
-        <v>0.0014545600757999999</v>
+        <v>0.0014553262386</v>
       </c>
     </row>
     <row r="92">
@@ -2968,16 +2968,16 @@
         <v>image/webp</v>
       </c>
       <c r="E92">
-        <v>3898</v>
+        <v>3903</v>
       </c>
       <c r="F92">
         <v>3490</v>
       </c>
       <c r="G92">
-        <v>0.0011335890739999999</v>
+        <v>0.0011350431389999997</v>
       </c>
       <c r="H92">
-        <v>0.0014932512972</v>
+        <v>0.0014951667042000002</v>
       </c>
     </row>
     <row r="93">
@@ -3020,16 +3020,16 @@
         <v>image/webp</v>
       </c>
       <c r="E94">
-        <v>5080</v>
+        <v>5087</v>
       </c>
       <c r="F94">
         <v>4674</v>
       </c>
       <c r="G94">
-        <v>0.0014773300399999998</v>
+        <v>0.0014793657309999997</v>
       </c>
       <c r="H94">
-        <v>0.001946053512</v>
+        <v>0.0019487350818000004</v>
       </c>
     </row>
     <row r="95">
@@ -3046,16 +3046,16 @@
         <v>image/webp</v>
       </c>
       <c r="E95">
-        <v>5151</v>
+        <v>5154</v>
       </c>
       <c r="F95">
         <v>4732</v>
       </c>
       <c r="G95">
-        <v>0.001497977763</v>
+        <v>0.001498850202</v>
       </c>
       <c r="H95">
-        <v>0.0019732522914000005</v>
+        <v>0.0019744015356</v>
       </c>
     </row>
     <row r="96">
@@ -3098,16 +3098,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E97">
-        <v>31129</v>
+        <v>31141</v>
       </c>
       <c r="F97">
         <v>88370</v>
       </c>
       <c r="G97">
-        <v>0.009052717876999999</v>
+        <v>0.009056207633</v>
       </c>
       <c r="H97">
-        <v>0.011924940900600001</v>
+        <v>0.0119295378774</v>
       </c>
     </row>
     <row r="98">
@@ -3124,16 +3124,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>32204</v>
+        <v>32217</v>
       </c>
       <c r="F98">
         <v>106622</v>
       </c>
       <c r="G98">
-        <v>0.009365341851999998</v>
+        <v>0.009369122421</v>
       </c>
       <c r="H98">
-        <v>0.012336753405600002</v>
+        <v>0.0123417334638</v>
       </c>
     </row>
     <row r="99">
@@ -3150,16 +3150,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E99">
-        <v>104783</v>
+        <v>104826</v>
       </c>
       <c r="F99">
         <v>359431</v>
       </c>
       <c r="G99">
-        <v>0.030472258578999996</v>
+        <v>0.030484763537999993</v>
       </c>
       <c r="H99">
-        <v>0.040140418336199996</v>
+        <v>0.040156890836400005</v>
       </c>
     </row>
     <row r="100">
@@ -3176,16 +3176,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E100">
-        <v>6509</v>
+        <v>6515</v>
       </c>
       <c r="F100">
         <v>17612</v>
       </c>
       <c r="G100">
-        <v>0.0018929018169999998</v>
+        <v>0.0018946466949999999</v>
       </c>
       <c r="H100">
-        <v>0.0024934768326</v>
+        <v>0.0024957753210000004</v>
       </c>
     </row>
     <row r="101">
@@ -3202,16 +3202,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E101">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F101">
         <v>11000</v>
       </c>
       <c r="G101">
-        <v>0.0012100728929999999</v>
+        <v>0.0012097820799999999</v>
       </c>
       <c r="H101">
-        <v>0.0015940017054</v>
+        <v>0.0015936186240000003</v>
       </c>
     </row>
     <row r="102">
@@ -3306,16 +3306,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>104093</v>
+        <v>104280</v>
       </c>
       <c r="F105">
-        <v>293262</v>
+        <v>293596</v>
       </c>
       <c r="G105">
-        <v>0.030271597608999997</v>
+        <v>0.030325979639999997</v>
       </c>
       <c r="H105">
-        <v>0.03987609217020001</v>
+        <v>0.039947728392</v>
       </c>
     </row>
     <row r="106">
@@ -3323,25 +3323,25 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.asker.kommune.no/UI/Icons/Asker/asker__arrow-down.svg</v>
+        <v>https://js.monitor.azure.com/scripts/b/ai.2.gbl.min.js</v>
       </c>
       <c r="C106" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D106" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E106">
-        <v>766</v>
+        <v>46698</v>
       </c>
       <c r="F106">
-        <v>591</v>
+        <v>122876</v>
       </c>
       <c r="G106">
-        <v>0.00022276275799999997</v>
+        <v>0.013580385473999998</v>
       </c>
       <c r="H106">
-        <v>0.0002934403524</v>
+        <v>0.0178891352172</v>
       </c>
     </row>
     <row r="107">
@@ -3349,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="str">
-        <v>https://js.monitor.azure.com/scripts/b/ai.2.gbl.min.js</v>
+        <v>https://policy.app.cookieinformation.com/uc.js?language=NO&amp;gcmEnabledByConsentLibrary=false</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
@@ -3358,16 +3358,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E107">
-        <v>46698</v>
+        <v>12385</v>
       </c>
       <c r="F107">
-        <v>122876</v>
+        <v>41113</v>
       </c>
       <c r="G107">
-        <v>0.013580385473999998</v>
+        <v>0.0036017190049999993</v>
       </c>
       <c r="H107">
-        <v>0.0178891352172</v>
+        <v>0.004744463139</v>
       </c>
     </row>
     <row r="108">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.asker.kommune.no/UI/Icons/Masks/a.svg</v>
+        <v>https://www.asker.kommune.no/UI/Icons/Asker/asker__arrow-down.svg</v>
       </c>
       <c r="C108" t="str">
         <v>Image</v>
@@ -3384,16 +3384,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E108">
-        <v>543</v>
+        <v>765</v>
       </c>
       <c r="F108">
-        <v>265</v>
+        <v>591</v>
       </c>
       <c r="G108">
-        <v>0.00015791145899999998</v>
+        <v>0.00022247194499999998</v>
       </c>
       <c r="H108">
-        <v>0.00020801320020000003</v>
+        <v>0.00029305727100000005</v>
       </c>
     </row>
     <row r="109">
@@ -3401,25 +3401,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="str">
-        <v>https://policy.app.cookieinformation.com/uc.js?language=NO&amp;gcmEnabledByConsentLibrary=false</v>
+        <v>https://www.asker.kommune.no/UI/Icons/Masks/a.svg</v>
       </c>
       <c r="C109" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D109" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E109">
-        <v>12385</v>
+        <v>543</v>
       </c>
       <c r="F109">
-        <v>41113</v>
+        <v>265</v>
       </c>
       <c r="G109">
-        <v>0.0036017190049999993</v>
+        <v>0.00015791145899999998</v>
       </c>
       <c r="H109">
-        <v>0.004744463139</v>
+        <v>0.00020801320020000003</v>
       </c>
     </row>
     <row r="110">
@@ -3427,22 +3427,25 @@
         <v>2</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.googletagmanager.com/td?id=GTM-P8FQL6ZL&amp;v=3&amp;t=t&amp;pid=369318826&amp;seq=1&amp;exp=101509157~103116026~103200004~103233427~104527907~104528501~104684208~104684211~105322303~115583767~115938466~115938468~116217636~116217638&amp;dl=www.asker.kommune.no%2F&amp;tdp=GTM-P8FQL6ZL;205354392;0;0;0&amp;frm=0&amp;rtg=205354392&amp;slo=8&amp;hlo=2&amp;lst=1&amp;bt=0&amp;ct=3&amp;z=0</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6000653.js</v>
       </c>
       <c r="C110" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D110" t="str">
-        <v>text/plain</v>
+        <v>application/javascript</v>
       </c>
       <c r="E110">
-        <v>421</v>
+        <v>13752</v>
+      </c>
+      <c r="F110">
+        <v>45002</v>
       </c>
       <c r="G110">
-        <v>0.00012243227299999998</v>
+        <v>0.0039992603759999995</v>
       </c>
       <c r="H110">
-        <v>0.00016127726940000004</v>
+        <v>0.0052681354128</v>
       </c>
     </row>
     <row r="111">
@@ -3450,25 +3453,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6000653.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
       </c>
       <c r="C111" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D111" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E111">
-        <v>13753</v>
+        <v>22174</v>
       </c>
       <c r="F111">
-        <v>45002</v>
+        <v>257200</v>
       </c>
       <c r="G111">
-        <v>0.003999551188999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H111">
-        <v>0.0052685184942</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="112">
@@ -3476,25 +3479,25 @@
         <v>2</v>
       </c>
       <c r="B112" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
+        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
       </c>
       <c r="C112" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D112" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E112">
-        <v>22057</v>
+        <v>325285</v>
       </c>
       <c r="F112">
-        <v>255939</v>
+        <v>1249958</v>
       </c>
       <c r="G112">
-        <v>0.006414462340999999</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H112">
-        <v>0.0084496264398</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="113">
@@ -3502,25 +3505,25 @@
         <v>2</v>
       </c>
       <c r="B113" t="str">
-        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
       </c>
       <c r="C113" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D113" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E113">
-        <v>325285</v>
+        <v>3186</v>
       </c>
       <c r="F113">
-        <v>1249958</v>
+        <v>2812</v>
       </c>
       <c r="G113">
-        <v>0.09459710670499999</v>
+        <v>0.000926530218</v>
       </c>
       <c r="H113">
-        <v>0.124610633199</v>
+        <v>0.0012204973404000001</v>
       </c>
     </row>
     <row r="114">
@@ -3528,25 +3531,25 @@
         <v>2</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C114" t="str">
-        <v>Image</v>
+        <v>Document</v>
       </c>
       <c r="D114" t="str">
-        <v>image/svg+xml</v>
+        <v>text/html</v>
       </c>
       <c r="E114">
-        <v>2583</v>
+        <v>3009</v>
       </c>
       <c r="F114">
-        <v>5381</v>
+        <v>8796</v>
       </c>
       <c r="G114">
-        <v>0.0007511699789999999</v>
+        <v>0.0008750563169999999</v>
       </c>
       <c r="H114">
-        <v>0.0009894992562</v>
+        <v>0.0011526919326</v>
       </c>
     </row>
     <row r="115">
@@ -3554,25 +3557,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
       </c>
       <c r="C115" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D115" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>3186</v>
+        <v>14495</v>
       </c>
       <c r="F115">
-        <v>2812</v>
+        <v>147236</v>
       </c>
       <c r="G115">
-        <v>0.000926530218</v>
+        <v>0.004215334435</v>
       </c>
       <c r="H115">
-        <v>0.0012204973404000001</v>
+        <v>0.005552764893</v>
       </c>
     </row>
     <row r="116">
@@ -3580,25 +3583,25 @@
         <v>2</v>
       </c>
       <c r="B116" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=455&amp;luid=f124d4fc-7aa5-b6f7-b17c-f36c18cbd560&amp;prev=10d3bd4a-56d7-776a-206a-dba87528fc98&amp;rnd=30194</v>
       </c>
       <c r="C116" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D116" t="str">
-        <v>text/html</v>
+        <v>image/gif</v>
       </c>
       <c r="E116">
-        <v>3010</v>
+        <v>210</v>
       </c>
       <c r="F116">
-        <v>8796</v>
+        <v>34</v>
       </c>
       <c r="G116">
-        <v>0.0008753471299999999</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H116">
-        <v>0.001153075014</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="117">
@@ -3606,25 +3609,25 @@
         <v>2</v>
       </c>
       <c r="B117" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
       </c>
       <c r="C117" t="str">
-        <v>Script</v>
+        <v>Manifest</v>
       </c>
       <c r="D117" t="str">
-        <v>application/javascript</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E117">
-        <v>14469</v>
+        <v>769</v>
       </c>
       <c r="F117">
-        <v>147236</v>
+        <v>478</v>
       </c>
       <c r="G117">
-        <v>0.004207773296999999</v>
+        <v>0.00022363519699999997</v>
       </c>
       <c r="H117">
-        <v>0.0055428047766</v>
+        <v>0.00029458959660000003</v>
       </c>
     </row>
     <row r="118">
@@ -3632,25 +3635,25 @@
         <v>2</v>
       </c>
       <c r="B118" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=434&amp;luid=1dbb8d3e-72d9-4cda-851b-1ed8232114d4&amp;prev=f7fa63e7-4a8e-0c30-3e8c-efc13ec1b53c&amp;rnd=50187</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
       </c>
       <c r="C118" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D118" t="str">
-        <v>image/gif</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E118">
-        <v>210</v>
+        <v>31467</v>
       </c>
       <c r="F118">
-        <v>34</v>
+        <v>100355</v>
       </c>
       <c r="G118">
-        <v>0.00006107072999999999</v>
+        <v>0.009151012670999999</v>
       </c>
       <c r="H118">
-        <v>0.00008044709400000001</v>
+        <v>0.012054422413800002</v>
       </c>
     </row>
     <row r="119">
@@ -3658,25 +3661,25 @@
         <v>2</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
       </c>
       <c r="C119" t="str">
-        <v>Manifest</v>
+        <v>Script</v>
       </c>
       <c r="D119" t="str">
-        <v>application/manifest+json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E119">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F119">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="G119">
-        <v>0.00022363519699999997</v>
+        <v>0.00021869137599999996</v>
       </c>
       <c r="H119">
-        <v>0.00029458959660000003</v>
+        <v>0.0002880772128000001</v>
       </c>
     </row>
     <row r="120">
@@ -3684,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C120" t="str">
         <v>Script</v>
@@ -3693,16 +3696,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E120">
-        <v>31467</v>
+        <v>19979</v>
       </c>
       <c r="F120">
-        <v>100355</v>
+        <v>60972</v>
       </c>
       <c r="G120">
-        <v>0.009151012670999999</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H120">
-        <v>0.012054422413800002</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="121">
@@ -3710,25 +3713,22 @@
         <v>2</v>
       </c>
       <c r="B121" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C121" t="str">
-        <v>Script</v>
+        <v>Preflight</v>
       </c>
       <c r="D121" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E121">
-        <v>752</v>
-      </c>
-      <c r="F121">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.00021869137599999996</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>0.0002880772128000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3736,25 +3736,25 @@
         <v>2</v>
       </c>
       <c r="B122" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C122" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D122" t="str">
-        <v>application/x-javascript</v>
+        <v>text/json</v>
       </c>
       <c r="E122">
-        <v>19979</v>
+        <v>7412</v>
       </c>
       <c r="F122">
-        <v>60972</v>
+        <v>28951</v>
       </c>
       <c r="G122">
-        <v>0.005810152926999999</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H122">
-        <v>0.0076535832906</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="123">
@@ -3762,22 +3762,25 @@
         <v>2</v>
       </c>
       <c r="B123" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
       </c>
       <c r="C123" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D123" t="str">
-        <v/>
+        <v>image/svg+xml</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>10388</v>
+      </c>
+      <c r="F123">
+        <v>25100</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.0030209654439999995</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>0.003979449583200001</v>
       </c>
     </row>
     <row r="124">
@@ -3785,25 +3788,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
       </c>
       <c r="C124" t="str">
-        <v>XHR</v>
+        <v>Other</v>
       </c>
       <c r="D124" t="str">
-        <v>text/json</v>
+        <v>image/webp</v>
       </c>
       <c r="E124">
-        <v>7413</v>
+        <v>1239</v>
       </c>
       <c r="F124">
-        <v>28951</v>
+        <v>826</v>
       </c>
       <c r="G124">
-        <v>0.0021557967689999997</v>
+        <v>0.000360317307</v>
       </c>
       <c r="H124">
-        <v>0.0028397824181999997</v>
+        <v>0.00047463785459999995</v>
       </c>
     </row>
     <row r="125">
@@ -3811,25 +3814,22 @@
         <v>2</v>
       </c>
       <c r="B125" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C125" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D125" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E125">
-        <v>10388</v>
-      </c>
-      <c r="F125">
-        <v>25100</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.0030209654439999995</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>0.003979449583200001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3837,25 +3837,25 @@
         <v>2</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C126" t="str">
-        <v>Other</v>
+        <v>XHR</v>
       </c>
       <c r="D126" t="str">
-        <v>image/webp</v>
+        <v>application/json</v>
       </c>
       <c r="E126">
-        <v>1237</v>
+        <v>200</v>
       </c>
       <c r="F126">
-        <v>826</v>
+        <v>96</v>
       </c>
       <c r="G126">
-        <v>0.00035973568099999996</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H126">
-        <v>0.00047387169180000016</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="127">
@@ -3863,48 +3863,51 @@
         <v>2</v>
       </c>
       <c r="B127" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
       </c>
       <c r="C127" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D127" t="str">
-        <v/>
+        <v>image/svg+xml</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>2583</v>
+      </c>
+      <c r="F127">
+        <v>5381</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.0007511699789999999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>0.0009894992562</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.asker.kommune.no/</v>
       </c>
       <c r="C128" t="str">
-        <v>XHR</v>
+        <v>Document</v>
       </c>
       <c r="D128" t="str">
-        <v>application/json</v>
+        <v>text/html</v>
       </c>
       <c r="E128">
-        <v>200</v>
+        <v>13699</v>
       </c>
       <c r="F128">
-        <v>96</v>
+        <v>51676</v>
       </c>
       <c r="G128">
-        <v>0.00005816259999999999</v>
+        <v>0.003983847286999999</v>
       </c>
       <c r="H128">
-        <v>0.00007661628</v>
+        <v>0.005247832098600001</v>
       </c>
     </row>
     <row r="129">
@@ -3912,25 +3915,25 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.asker.kommune.no/</v>
+        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Regular.woff</v>
       </c>
       <c r="C129" t="str">
-        <v>Document</v>
+        <v>Font</v>
       </c>
       <c r="D129" t="str">
-        <v>text/html</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E129">
-        <v>13757</v>
+        <v>26631</v>
       </c>
       <c r="F129">
-        <v>51754</v>
+        <v>26276</v>
       </c>
       <c r="G129">
-        <v>0.004000714440999999</v>
+        <v>0.007744641003</v>
       </c>
       <c r="H129">
-        <v>0.005270050819800001</v>
+        <v>0.0102018407634</v>
       </c>
     </row>
     <row r="130">
@@ -3938,25 +3941,25 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Regular.woff</v>
+        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Regular.woff2</v>
       </c>
       <c r="C130" t="str">
         <v>Font</v>
       </c>
       <c r="D130" t="str">
-        <v>application/font-woff</v>
+        <v>font/woff2</v>
       </c>
       <c r="E130">
-        <v>26629</v>
+        <v>22032</v>
       </c>
       <c r="F130">
-        <v>26276</v>
+        <v>21684</v>
       </c>
       <c r="G130">
-        <v>0.007744059376999999</v>
+        <v>0.006407192015999999</v>
       </c>
       <c r="H130">
-        <v>0.0102010746006</v>
+        <v>0.008440049404799999</v>
       </c>
     </row>
     <row r="131">
@@ -3964,25 +3967,25 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Regular.woff2</v>
+        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Bold.woff</v>
       </c>
       <c r="C131" t="str">
         <v>Font</v>
       </c>
       <c r="D131" t="str">
-        <v>font/woff2</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E131">
-        <v>22039</v>
+        <v>27247</v>
       </c>
       <c r="F131">
-        <v>21684</v>
+        <v>26900</v>
       </c>
       <c r="G131">
-        <v>0.006409227706999999</v>
+        <v>0.007923781811</v>
       </c>
       <c r="H131">
-        <v>0.008442730974600002</v>
+        <v>0.0104378189058</v>
       </c>
     </row>
     <row r="132">
@@ -3990,25 +3993,25 @@
         <v>3</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Bold.woff</v>
+        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Bold.woff2</v>
       </c>
       <c r="C132" t="str">
         <v>Font</v>
       </c>
       <c r="D132" t="str">
-        <v>application/font-woff</v>
+        <v>font/woff2</v>
       </c>
       <c r="E132">
-        <v>27250</v>
+        <v>22559</v>
       </c>
       <c r="F132">
-        <v>26900</v>
+        <v>22212</v>
       </c>
       <c r="G132">
-        <v>0.00792465425</v>
+        <v>0.006560450466999999</v>
       </c>
       <c r="H132">
-        <v>0.010438968150000002</v>
+        <v>0.008641933302600002</v>
       </c>
     </row>
     <row r="133">
@@ -4016,25 +4019,25 @@
         <v>3</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.asker.kommune.no/UI/Fonts/Asker/AskerSans-Bold.woff2</v>
+        <v>https://www.asker.kommune.no/UI/Fonts/FeatherIcons/feather.woff</v>
       </c>
       <c r="C133" t="str">
         <v>Font</v>
       </c>
       <c r="D133" t="str">
-        <v>font/woff2</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E133">
-        <v>22564</v>
+        <v>29885</v>
       </c>
       <c r="F133">
-        <v>22212</v>
+        <v>29500</v>
       </c>
       <c r="G133">
-        <v>0.006561904531999999</v>
+        <v>0.008690946504999998</v>
       </c>
       <c r="H133">
-        <v>0.0086438487096</v>
+        <v>0.011448387639</v>
       </c>
     </row>
     <row r="134">
@@ -4042,25 +4045,25 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.asker.kommune.no/UI/Fonts/FeatherIcons/feather.woff</v>
+        <v>https://www.asker.kommune.no/dist/global.e19138f5.css</v>
       </c>
       <c r="C134" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D134" t="str">
-        <v>application/font-woff</v>
+        <v>text/css</v>
       </c>
       <c r="E134">
-        <v>29886</v>
+        <v>2918</v>
       </c>
       <c r="F134">
-        <v>29500</v>
+        <v>10537</v>
       </c>
       <c r="G134">
-        <v>0.008691237317999999</v>
+        <v>0.0008485923339999999</v>
       </c>
       <c r="H134">
-        <v>0.011448770720400002</v>
+        <v>0.0011178315252000001</v>
       </c>
     </row>
     <row r="135">
@@ -4068,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.asker.kommune.no/dist/global.e19138f5.css</v>
+        <v>https://www.asker.kommune.no/dist/asker.c5323bcd.css</v>
       </c>
       <c r="C135" t="str">
         <v>Stylesheet</v>
@@ -4077,16 +4080,16 @@
         <v>text/css</v>
       </c>
       <c r="E135">
-        <v>2918</v>
+        <v>36209</v>
       </c>
       <c r="F135">
-        <v>10537</v>
+        <v>258216</v>
       </c>
       <c r="G135">
-        <v>0.0008485923339999999</v>
+        <v>0.010530047916999997</v>
       </c>
       <c r="H135">
-        <v>0.0011178315252000001</v>
+        <v>0.0138709944126</v>
       </c>
     </row>
     <row r="136">
@@ -4094,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.asker.kommune.no/dist/asker.c5323bcd.css</v>
+        <v>https://www.asker.kommune.no/dist/askerpolitical.afe387c9.css</v>
       </c>
       <c r="C136" t="str">
         <v>Stylesheet</v>
@@ -4103,16 +4106,16 @@
         <v>text/css</v>
       </c>
       <c r="E136">
-        <v>36229</v>
+        <v>1578</v>
       </c>
       <c r="F136">
-        <v>258216</v>
+        <v>7645</v>
       </c>
       <c r="G136">
-        <v>0.010535864176999999</v>
+        <v>0.00045890291399999994</v>
       </c>
       <c r="H136">
-        <v>0.013878656040600002</v>
+        <v>0.0006045024492</v>
       </c>
     </row>
     <row r="137">
@@ -4120,25 +4123,25 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.asker.kommune.no/dist/askerpolitical.afe387c9.css</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logo.svg</v>
       </c>
       <c r="C137" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D137" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E137">
-        <v>1578</v>
+        <v>2778</v>
       </c>
       <c r="F137">
-        <v>7645</v>
+        <v>6167</v>
       </c>
       <c r="G137">
-        <v>0.00045890291399999994</v>
+        <v>0.0008078785139999999</v>
       </c>
       <c r="H137">
-        <v>0.0006045024492</v>
+        <v>0.0010642001292</v>
       </c>
     </row>
     <row r="138">
@@ -4146,25 +4149,25 @@
         <v>3</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logo.svg</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/hosttrar.jpg?mode=crop&amp;quality=90&amp;width=800&amp;height=450</v>
       </c>
       <c r="C138" t="str">
         <v>Image</v>
       </c>
       <c r="D138" t="str">
-        <v>image/svg+xml</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E138">
-        <v>2779</v>
+        <v>113262</v>
       </c>
       <c r="F138">
-        <v>6167</v>
+        <v>112831</v>
       </c>
       <c r="G138">
-        <v>0.0008081693269999999</v>
+        <v>0.032938062005999996</v>
       </c>
       <c r="H138">
-        <v>0.0010645832106000001</v>
+        <v>0.0433885655268</v>
       </c>
     </row>
     <row r="139">
@@ -4172,25 +4175,25 @@
         <v>3</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/hosttrar.jpg?mode=crop&amp;quality=90&amp;width=800&amp;height=450</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/vaccine-needle.png</v>
       </c>
       <c r="C139" t="str">
         <v>Image</v>
       </c>
       <c r="D139" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E139">
-        <v>113265</v>
+        <v>1390</v>
       </c>
       <c r="F139">
-        <v>112831</v>
+        <v>978</v>
       </c>
       <c r="G139">
-        <v>0.032938934445</v>
+        <v>0.00040423006999999993</v>
       </c>
       <c r="H139">
-        <v>0.043389714771</v>
+        <v>0.0005324831460000001</v>
       </c>
     </row>
     <row r="140">
@@ -4198,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/vaccine-needle.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/byutvikling.png</v>
       </c>
       <c r="C140" t="str">
         <v>Image</v>
@@ -4207,16 +4210,16 @@
         <v>image/webp</v>
       </c>
       <c r="E140">
-        <v>1391</v>
+        <v>2153</v>
       </c>
       <c r="F140">
-        <v>978</v>
+        <v>1742</v>
       </c>
       <c r="G140">
-        <v>0.00040452088299999995</v>
+        <v>0.0006261203889999999</v>
       </c>
       <c r="H140">
-        <v>0.0005328662274000001</v>
+        <v>0.0008247742542</v>
       </c>
     </row>
     <row r="141">
@@ -4224,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="B141" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/byutvikling.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/plan-bygg-og-eiendom.png</v>
       </c>
       <c r="C141" t="str">
         <v>Image</v>
@@ -4233,16 +4236,16 @@
         <v>image/webp</v>
       </c>
       <c r="E141">
-        <v>2153</v>
+        <v>2767</v>
       </c>
       <c r="F141">
-        <v>1742</v>
+        <v>2350</v>
       </c>
       <c r="G141">
-        <v>0.0006261203889999999</v>
+        <v>0.0008046795709999999</v>
       </c>
       <c r="H141">
-        <v>0.0008247742542</v>
+        <v>0.0010599862338000002</v>
       </c>
     </row>
     <row r="142">
@@ -4250,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/plan-bygg-og-eiendom.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/voksen-barn.png</v>
       </c>
       <c r="C142" t="str">
         <v>Image</v>
@@ -4259,16 +4262,16 @@
         <v>image/webp</v>
       </c>
       <c r="E142">
-        <v>2766</v>
+        <v>4130</v>
       </c>
       <c r="F142">
-        <v>2350</v>
+        <v>3720</v>
       </c>
       <c r="G142">
-        <v>0.0008043887579999999</v>
+        <v>0.0012010576899999998</v>
       </c>
       <c r="H142">
-        <v>0.0010596031524</v>
+        <v>0.0015821261820000002</v>
       </c>
     </row>
     <row r="143">
@@ -4276,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/voksen-barn.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/barnehage.png</v>
       </c>
       <c r="C143" t="str">
         <v>Image</v>
@@ -4285,16 +4288,16 @@
         <v>image/webp</v>
       </c>
       <c r="E143">
-        <v>4131</v>
+        <v>3758</v>
       </c>
       <c r="F143">
-        <v>3720</v>
+        <v>3350</v>
       </c>
       <c r="G143">
-        <v>0.0012013485029999998</v>
+        <v>0.0010928752539999997</v>
       </c>
       <c r="H143">
-        <v>0.0015825092634000001</v>
+        <v>0.0014396199012000003</v>
       </c>
     </row>
     <row r="144">
@@ -4302,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/barnehage.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/skole-og-utdanning.png</v>
       </c>
       <c r="C144" t="str">
         <v>Image</v>
@@ -4311,16 +4314,16 @@
         <v>image/webp</v>
       </c>
       <c r="E144">
-        <v>3761</v>
+        <v>2567</v>
       </c>
       <c r="F144">
-        <v>3350</v>
+        <v>2152</v>
       </c>
       <c r="G144">
-        <v>0.0010937476929999998</v>
+        <v>0.0007465169709999999</v>
       </c>
       <c r="H144">
-        <v>0.0014407691454000004</v>
+        <v>0.0009833699538000001</v>
       </c>
     </row>
     <row r="145">
@@ -4328,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/skole-og-utdanning.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/helse-og-omsorg.png</v>
       </c>
       <c r="C145" t="str">
         <v>Image</v>
@@ -4337,16 +4340,16 @@
         <v>image/webp</v>
       </c>
       <c r="E145">
-        <v>2567</v>
+        <v>5036</v>
       </c>
       <c r="F145">
-        <v>2152</v>
+        <v>4624</v>
       </c>
       <c r="G145">
-        <v>0.0007465169709999999</v>
+        <v>0.0014645342679999998</v>
       </c>
       <c r="H145">
-        <v>0.0009833699538000001</v>
+        <v>0.0019291979304000002</v>
       </c>
     </row>
     <row r="146">
@@ -4354,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/helse-og-omsorg.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/bolig-og-sosiale-tjenester.png</v>
       </c>
       <c r="C146" t="str">
         <v>Image</v>
@@ -4363,16 +4366,16 @@
         <v>image/webp</v>
       </c>
       <c r="E146">
-        <v>5036</v>
+        <v>3648</v>
       </c>
       <c r="F146">
-        <v>4624</v>
+        <v>3226</v>
       </c>
       <c r="G146">
-        <v>0.0014645342679999998</v>
+        <v>0.0010608858239999999</v>
       </c>
       <c r="H146">
-        <v>0.0019291979304000002</v>
+        <v>0.0013974809472</v>
       </c>
     </row>
     <row r="147">
@@ -4380,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/bolig-og-sosiale-tjenester.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/jordklode.png</v>
       </c>
       <c r="C147" t="str">
         <v>Image</v>
@@ -4389,16 +4392,16 @@
         <v>image/webp</v>
       </c>
       <c r="E147">
-        <v>3646</v>
+        <v>5451</v>
       </c>
       <c r="F147">
-        <v>3226</v>
+        <v>5042</v>
       </c>
       <c r="G147">
-        <v>0.001060304198</v>
+        <v>0.0015852216629999997</v>
       </c>
       <c r="H147">
-        <v>0.0013967147843999999</v>
+        <v>0.0020881767114000003</v>
       </c>
     </row>
     <row r="148">
@@ -4406,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/jordklode.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/gjenvinning.png</v>
       </c>
       <c r="C148" t="str">
         <v>Image</v>
@@ -4415,16 +4418,16 @@
         <v>image/webp</v>
       </c>
       <c r="E148">
-        <v>5452</v>
+        <v>4517</v>
       </c>
       <c r="F148">
-        <v>5042</v>
+        <v>4106</v>
       </c>
       <c r="G148">
-        <v>0.0015855124759999997</v>
+        <v>0.0013136023209999999</v>
       </c>
       <c r="H148">
-        <v>0.0020885597928</v>
+        <v>0.0017303786838000002</v>
       </c>
     </row>
     <row r="149">
@@ -4432,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/gjenvinning.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/klima-og-miljo.png</v>
       </c>
       <c r="C149" t="str">
         <v>Image</v>
@@ -4441,16 +4444,16 @@
         <v>image/webp</v>
       </c>
       <c r="E149">
-        <v>4516</v>
+        <v>4866</v>
       </c>
       <c r="F149">
-        <v>4106</v>
+        <v>4452</v>
       </c>
       <c r="G149">
-        <v>0.0013133115079999999</v>
+        <v>0.0014150960579999998</v>
       </c>
       <c r="H149">
-        <v>0.0017299956024000001</v>
+        <v>0.0018640740923999998</v>
       </c>
     </row>
     <row r="150">
@@ -4458,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/klima-og-miljo.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/natur-og-friluft.png</v>
       </c>
       <c r="C150" t="str">
         <v>Image</v>
@@ -4467,16 +4470,16 @@
         <v>image/webp</v>
       </c>
       <c r="E150">
-        <v>4867</v>
+        <v>4530</v>
       </c>
       <c r="F150">
-        <v>4452</v>
+        <v>4116</v>
       </c>
       <c r="G150">
-        <v>0.0014153868709999998</v>
+        <v>0.0013173828899999999</v>
       </c>
       <c r="H150">
-        <v>0.0018644571738000004</v>
+        <v>0.0017353587420000003</v>
       </c>
     </row>
     <row r="151">
@@ -4484,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/natur-og-friluft.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/frivillighet-og-deltakelse.png</v>
       </c>
       <c r="C151" t="str">
         <v>Image</v>
@@ -4493,16 +4496,16 @@
         <v>image/webp</v>
       </c>
       <c r="E151">
-        <v>4533</v>
+        <v>4804</v>
       </c>
       <c r="F151">
-        <v>4116</v>
+        <v>4382</v>
       </c>
       <c r="G151">
-        <v>0.001318255329</v>
+        <v>0.0013970656519999998</v>
       </c>
       <c r="H151">
-        <v>0.0017365079862000001</v>
+        <v>0.0018403230456000004</v>
       </c>
     </row>
     <row r="152">
@@ -4510,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/frivillighet-og-deltakelse.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/kultur-idrett-og-fritid.png</v>
       </c>
       <c r="C152" t="str">
         <v>Image</v>
@@ -4519,16 +4522,16 @@
         <v>image/webp</v>
       </c>
       <c r="E152">
-        <v>4802</v>
+        <v>2042</v>
       </c>
       <c r="F152">
-        <v>4382</v>
+        <v>1624</v>
       </c>
       <c r="G152">
-        <v>0.0013964840259999998</v>
+        <v>0.0005938401459999998</v>
       </c>
       <c r="H152">
-        <v>0.0018395568828000002</v>
+        <v>0.0007822522188</v>
       </c>
     </row>
     <row r="153">
@@ -4536,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/kultur-idrett-og-fritid.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/vei-trafikk-og-parkering.png</v>
       </c>
       <c r="C153" t="str">
         <v>Image</v>
@@ -4545,16 +4548,16 @@
         <v>image/webp</v>
       </c>
       <c r="E153">
-        <v>2046</v>
+        <v>3077</v>
       </c>
       <c r="F153">
-        <v>1624</v>
+        <v>2656</v>
       </c>
       <c r="G153">
-        <v>0.0005950033979999999</v>
+        <v>0.0008948316009999999</v>
       </c>
       <c r="H153">
-        <v>0.0007837845444000001</v>
+        <v>0.0011787414678000002</v>
       </c>
     </row>
     <row r="154">
@@ -4562,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/vei-trafikk-og-parkering.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/vann-og-avlop.png</v>
       </c>
       <c r="C154" t="str">
         <v>Image</v>
@@ -4571,16 +4574,16 @@
         <v>image/webp</v>
       </c>
       <c r="E154">
-        <v>3081</v>
+        <v>3796</v>
       </c>
       <c r="F154">
-        <v>2656</v>
+        <v>3384</v>
       </c>
       <c r="G154">
-        <v>0.0008959948529999998</v>
+        <v>0.0011039261479999997</v>
       </c>
       <c r="H154">
-        <v>0.0011802737934000001</v>
+        <v>0.0014541769944</v>
       </c>
     </row>
     <row r="155">
@@ -4588,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/vann-og-avlop.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/beredskap.png</v>
       </c>
       <c r="C155" t="str">
         <v>Image</v>
@@ -4597,16 +4600,16 @@
         <v>image/webp</v>
       </c>
       <c r="E155">
-        <v>3797</v>
+        <v>3900</v>
       </c>
       <c r="F155">
-        <v>3384</v>
+        <v>3490</v>
       </c>
       <c r="G155">
-        <v>0.0011042169609999997</v>
+        <v>0.0011341707</v>
       </c>
       <c r="H155">
-        <v>0.0014545600757999999</v>
+        <v>0.0014940174600000002</v>
       </c>
     </row>
     <row r="156">
@@ -4614,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/beredskap.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/naeringsliv.png</v>
       </c>
       <c r="C156" t="str">
         <v>Image</v>
@@ -4623,16 +4626,16 @@
         <v>image/webp</v>
       </c>
       <c r="E156">
-        <v>3901</v>
+        <v>1923</v>
       </c>
       <c r="F156">
-        <v>3490</v>
+        <v>1512</v>
       </c>
       <c r="G156">
-        <v>0.001134461513</v>
+        <v>0.0005592333989999999</v>
       </c>
       <c r="H156">
-        <v>0.0014944005414000002</v>
+        <v>0.0007366655322000001</v>
       </c>
     </row>
     <row r="157">
@@ -4640,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/naeringsliv.png</v>
+        <v>https://www.asker.kommune.no/UI/Pictograms/kart.png</v>
       </c>
       <c r="C157" t="str">
         <v>Image</v>
@@ -4649,16 +4652,16 @@
         <v>image/webp</v>
       </c>
       <c r="E157">
-        <v>1923</v>
+        <v>5081</v>
       </c>
       <c r="F157">
-        <v>1512</v>
+        <v>4674</v>
       </c>
       <c r="G157">
-        <v>0.0005592333989999999</v>
+        <v>0.0014776208529999999</v>
       </c>
       <c r="H157">
-        <v>0.0007366655322000001</v>
+        <v>0.0019464365934000005</v>
       </c>
     </row>
     <row r="158">
@@ -4666,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="str">
-        <v>https://www.asker.kommune.no/UI/Pictograms/kart.png</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/klimanettverk2.jpg?mode=crop&amp;scale=both&amp;quality=80&amp;width=300&amp;height=200</v>
       </c>
       <c r="C158" t="str">
         <v>Image</v>
@@ -4675,16 +4678,16 @@
         <v>image/webp</v>
       </c>
       <c r="E158">
-        <v>5080</v>
+        <v>5151</v>
       </c>
       <c r="F158">
-        <v>4674</v>
+        <v>4732</v>
       </c>
       <c r="G158">
-        <v>0.0014773300399999998</v>
+        <v>0.001497977763</v>
       </c>
       <c r="H158">
-        <v>0.001946053512</v>
+        <v>0.0019732522914000005</v>
       </c>
     </row>
     <row r="159">
@@ -4692,25 +4695,25 @@
         <v>3</v>
       </c>
       <c r="B159" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/klimanettverk2.jpg?mode=crop&amp;scale=both&amp;quality=80&amp;width=300&amp;height=200</v>
+        <v>https://www.asker.kommune.no/dist/runtime.f40d01ec.js</v>
       </c>
       <c r="C159" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D159" t="str">
-        <v>image/webp</v>
+        <v>text/javascript</v>
       </c>
       <c r="E159">
-        <v>5151</v>
+        <v>2023</v>
       </c>
       <c r="F159">
-        <v>4732</v>
+        <v>3310</v>
       </c>
       <c r="G159">
-        <v>0.001497977763</v>
+        <v>0.000588314699</v>
       </c>
       <c r="H159">
-        <v>0.0019732522914000005</v>
+        <v>0.0007749736722000002</v>
       </c>
     </row>
     <row r="160">
@@ -4718,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.asker.kommune.no/dist/runtime.f40d01ec.js</v>
+        <v>https://www.asker.kommune.no/dist/755.063fa1e4.js</v>
       </c>
       <c r="C160" t="str">
         <v>Script</v>
@@ -4727,16 +4730,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E160">
-        <v>2023</v>
+        <v>31129</v>
       </c>
       <c r="F160">
-        <v>3310</v>
+        <v>88370</v>
       </c>
       <c r="G160">
-        <v>0.000588314699</v>
+        <v>0.009052717876999999</v>
       </c>
       <c r="H160">
-        <v>0.0007749736722000002</v>
+        <v>0.011924940900600001</v>
       </c>
     </row>
     <row r="161">
@@ -4744,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="str">
-        <v>https://www.asker.kommune.no/dist/755.063fa1e4.js</v>
+        <v>https://www.asker.kommune.no/dist/657.d7d8c74b.js</v>
       </c>
       <c r="C161" t="str">
         <v>Script</v>
@@ -4753,16 +4756,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E161">
-        <v>31141</v>
+        <v>32207</v>
       </c>
       <c r="F161">
-        <v>88370</v>
+        <v>106622</v>
       </c>
       <c r="G161">
-        <v>0.009056207633</v>
+        <v>0.009366214291</v>
       </c>
       <c r="H161">
-        <v>0.0119295378774</v>
+        <v>0.012337902649799998</v>
       </c>
     </row>
     <row r="162">
@@ -4770,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.asker.kommune.no/dist/657.d7d8c74b.js</v>
+        <v>https://www.asker.kommune.no/dist/454.edac5846.js</v>
       </c>
       <c r="C162" t="str">
         <v>Script</v>
@@ -4779,16 +4782,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E162">
-        <v>32222</v>
+        <v>104786</v>
       </c>
       <c r="F162">
-        <v>106622</v>
+        <v>359431</v>
       </c>
       <c r="G162">
-        <v>0.009370576485999997</v>
+        <v>0.030473131017999994</v>
       </c>
       <c r="H162">
-        <v>0.012343648870799999</v>
+        <v>0.0401415675804</v>
       </c>
     </row>
     <row r="163">
@@ -4796,7 +4799,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.asker.kommune.no/dist/454.edac5846.js</v>
+        <v>https://www.asker.kommune.no/dist/global.4978b4bb.js</v>
       </c>
       <c r="C163" t="str">
         <v>Script</v>
@@ -4805,16 +4808,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E163">
-        <v>104831</v>
+        <v>6509</v>
       </c>
       <c r="F163">
-        <v>359431</v>
+        <v>17612</v>
       </c>
       <c r="G163">
-        <v>0.030486217602999997</v>
+        <v>0.0018929018169999998</v>
       </c>
       <c r="H163">
-        <v>0.0401588062434</v>
+        <v>0.0024934768326</v>
       </c>
     </row>
     <row r="164">
@@ -4822,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="str">
-        <v>https://www.asker.kommune.no/dist/global.4978b4bb.js</v>
+        <v>https://www.asker.kommune.no/dist/asker.47efdcf9.js</v>
       </c>
       <c r="C164" t="str">
         <v>Script</v>
@@ -4831,16 +4834,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E164">
-        <v>6513</v>
+        <v>4160</v>
       </c>
       <c r="F164">
-        <v>17612</v>
+        <v>11000</v>
       </c>
       <c r="G164">
-        <v>0.0018940650689999998</v>
+        <v>0.0012097820799999999</v>
       </c>
       <c r="H164">
-        <v>0.0024950091582000003</v>
+        <v>0.0015936186240000003</v>
       </c>
     </row>
     <row r="165">
@@ -4848,25 +4851,25 @@
         <v>3</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.asker.kommune.no/dist/asker.47efdcf9.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.js</v>
       </c>
       <c r="C165" t="str">
         <v>Script</v>
       </c>
       <c r="D165" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E165">
-        <v>4164</v>
+        <v>5147</v>
       </c>
       <c r="F165">
-        <v>11000</v>
+        <v>14084</v>
       </c>
       <c r="G165">
-        <v>0.001210945332</v>
+        <v>0.0014968145109999999</v>
       </c>
       <c r="H165">
-        <v>0.0015951509496</v>
+        <v>0.0019717199658</v>
       </c>
     </row>
     <row r="166">
@@ -4874,25 +4877,25 @@
         <v>3</v>
       </c>
       <c r="B166" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.js</v>
+        <v>https://www.asker.kommune.no/Util/Find/epi-util/find.js</v>
       </c>
       <c r="C166" t="str">
         <v>Script</v>
       </c>
       <c r="D166" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E166">
-        <v>5147</v>
+        <v>2616</v>
       </c>
       <c r="F166">
-        <v>14084</v>
+        <v>5985</v>
       </c>
       <c r="G166">
-        <v>0.0014968145109999999</v>
+        <v>0.0007607668079999999</v>
       </c>
       <c r="H166">
-        <v>0.0019717199658</v>
+        <v>0.0010021409424</v>
       </c>
     </row>
     <row r="167">
@@ -4900,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.asker.kommune.no/Util/Find/epi-util/find.js</v>
+        <v>https://www.asker.kommune.no/js/eo.min.js</v>
       </c>
       <c r="C167" t="str">
         <v>Script</v>
@@ -4909,16 +4912,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E167">
-        <v>2616</v>
+        <v>651</v>
       </c>
       <c r="F167">
-        <v>5985</v>
+        <v>497</v>
       </c>
       <c r="G167">
-        <v>0.0007607668079999999</v>
+        <v>0.00018931926299999997</v>
       </c>
       <c r="H167">
-        <v>0.0010021409424</v>
+        <v>0.00024938599140000004</v>
       </c>
     </row>
     <row r="168">
@@ -4926,25 +4929,25 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.asker.kommune.no/js/eo.min.js</v>
+        <v>https://www.googletagmanager.com/gtm.js?id=GTM-P8FQL6ZL</v>
       </c>
       <c r="C168" t="str">
         <v>Script</v>
       </c>
       <c r="D168" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E168">
-        <v>651</v>
+        <v>104281</v>
       </c>
       <c r="F168">
-        <v>497</v>
+        <v>293589</v>
       </c>
       <c r="G168">
-        <v>0.00018931926299999997</v>
+        <v>0.030326270452999994</v>
       </c>
       <c r="H168">
-        <v>0.00024938599140000004</v>
+        <v>0.0399481114734</v>
       </c>
     </row>
     <row r="169">
@@ -4952,25 +4955,25 @@
         <v>3</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-P8FQL6ZL</v>
+        <v>https://js.monitor.azure.com/scripts/b/ai.2.gbl.min.js</v>
       </c>
       <c r="C169" t="str">
         <v>Script</v>
       </c>
       <c r="D169" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E169">
-        <v>104089</v>
+        <v>46699</v>
       </c>
       <c r="F169">
-        <v>293262</v>
+        <v>122876</v>
       </c>
       <c r="G169">
-        <v>0.030270434356999998</v>
+        <v>0.013580676286999998</v>
       </c>
       <c r="H169">
-        <v>0.039874559844600005</v>
+        <v>0.017889518298600002</v>
       </c>
     </row>
     <row r="170">
@@ -4978,25 +4981,25 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://js.monitor.azure.com/scripts/b/ai.2.gbl.min.js</v>
+        <v>https://www.asker.kommune.no/UI/Icons/Asker/asker__arrow-down.svg</v>
       </c>
       <c r="C170" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D170" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E170">
-        <v>46698</v>
+        <v>765</v>
       </c>
       <c r="F170">
-        <v>122876</v>
+        <v>591</v>
       </c>
       <c r="G170">
-        <v>0.013580385473999998</v>
+        <v>0.00022247194499999998</v>
       </c>
       <c r="H170">
-        <v>0.0178891352172</v>
+        <v>0.00029305727100000005</v>
       </c>
     </row>
     <row r="171">
@@ -5004,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.asker.kommune.no/UI/Icons/Asker/asker__arrow-down.svg</v>
+        <v>https://www.asker.kommune.no/UI/Icons/Masks/a.svg</v>
       </c>
       <c r="C171" t="str">
         <v>Image</v>
@@ -5013,16 +5016,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E171">
-        <v>766</v>
+        <v>543</v>
       </c>
       <c r="F171">
-        <v>591</v>
+        <v>265</v>
       </c>
       <c r="G171">
-        <v>0.00022276275799999997</v>
+        <v>0.00015791145899999998</v>
       </c>
       <c r="H171">
-        <v>0.0002934403524</v>
+        <v>0.00020801320020000003</v>
       </c>
     </row>
     <row r="172">
@@ -5030,25 +5033,25 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.asker.kommune.no/UI/Icons/Masks/a.svg</v>
+        <v>https://policy.app.cookieinformation.com/uc.js?language=NO&amp;gcmEnabledByConsentLibrary=false</v>
       </c>
       <c r="C172" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D172" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E172">
-        <v>543</v>
+        <v>12385</v>
       </c>
       <c r="F172">
-        <v>265</v>
+        <v>41113</v>
       </c>
       <c r="G172">
-        <v>0.00015791145899999998</v>
+        <v>0.0036017190049999993</v>
       </c>
       <c r="H172">
-        <v>0.00020801320020000003</v>
+        <v>0.004744463139</v>
       </c>
     </row>
     <row r="173">
@@ -5056,25 +5059,25 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://policy.app.cookieinformation.com/uc.js?language=NO&amp;gcmEnabledByConsentLibrary=false</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6000653.js</v>
       </c>
       <c r="C173" t="str">
         <v>Script</v>
       </c>
       <c r="D173" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E173">
-        <v>12386</v>
+        <v>13749</v>
       </c>
       <c r="F173">
-        <v>41113</v>
+        <v>45002</v>
       </c>
       <c r="G173">
-        <v>0.0036020098179999995</v>
+        <v>0.003998387936999999</v>
       </c>
       <c r="H173">
-        <v>0.0047448462204</v>
+        <v>0.005266986168600001</v>
       </c>
     </row>
     <row r="174">
@@ -5082,25 +5085,25 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6000653.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
       </c>
       <c r="C174" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D174" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E174">
-        <v>13747</v>
+        <v>22174</v>
       </c>
       <c r="F174">
-        <v>45002</v>
+        <v>257200</v>
       </c>
       <c r="G174">
-        <v>0.003997806311</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H174">
-        <v>0.0052662200058000005</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="175">
@@ -5108,25 +5111,25 @@
         <v>3</v>
       </c>
       <c r="B175" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
+        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
       </c>
       <c r="C175" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D175" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E175">
-        <v>22057</v>
+        <v>325285</v>
       </c>
       <c r="F175">
-        <v>255939</v>
+        <v>1249958</v>
       </c>
       <c r="G175">
-        <v>0.006414462340999999</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H175">
-        <v>0.0084496264398</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="176">
@@ -5134,25 +5137,25 @@
         <v>3</v>
       </c>
       <c r="B176" t="str">
-        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
       </c>
       <c r="C176" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D176" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E176">
-        <v>325285</v>
+        <v>2583</v>
       </c>
       <c r="F176">
-        <v>1249958</v>
+        <v>5381</v>
       </c>
       <c r="G176">
-        <v>0.09459710670499999</v>
+        <v>0.0007511699789999999</v>
       </c>
       <c r="H176">
-        <v>0.124610633199</v>
+        <v>0.0009894992562</v>
       </c>
     </row>
     <row r="177">
@@ -5221,16 +5224,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E179">
-        <v>14469</v>
+        <v>14484</v>
       </c>
       <c r="F179">
         <v>147236</v>
       </c>
       <c r="G179">
-        <v>0.004207773296999999</v>
+        <v>0.004212135491999999</v>
       </c>
       <c r="H179">
-        <v>0.0055428047766</v>
+        <v>0.0055485509976</v>
       </c>
     </row>
     <row r="180">
@@ -5238,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="B180" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=454&amp;luid=b1011cc0-a252-7fe3-47f8-90c0ab000748&amp;prev=4aa94175-60b8-f024-2f32-daec5c11ceb0&amp;rnd=77484</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=440&amp;luid=752822d3-cb72-a0e5-5484-f70ebf4febfb&amp;prev=887617e3-d84d-c762-6a9a-bdfb929f4f07&amp;rnd=96230</v>
       </c>
       <c r="C180" t="str">
         <v>Image</v>
@@ -5273,16 +5276,16 @@
         <v>application/manifest+json</v>
       </c>
       <c r="E181">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F181">
         <v>478</v>
       </c>
       <c r="G181">
-        <v>0.00022421682299999997</v>
+        <v>0.00022363519699999997</v>
       </c>
       <c r="H181">
-        <v>0.00029535575940000004</v>
+        <v>0.00029458959660000003</v>
       </c>
     </row>
     <row r="182">
@@ -5452,16 +5455,16 @@
         <v>image/webp</v>
       </c>
       <c r="E188">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F188">
         <v>826</v>
       </c>
       <c r="G188">
-        <v>0.00035973568099999996</v>
+        <v>0.000360317307</v>
       </c>
       <c r="H188">
-        <v>0.00047387169180000016</v>
+        <v>0.00047463785459999995</v>
       </c>
     </row>
     <row r="189">
@@ -5513,35 +5516,9 @@
         <v>0.00007661628</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191">
-        <v>3</v>
-      </c>
-      <c r="B191" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
-      </c>
-      <c r="C191" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D191" t="str">
-        <v>image/svg+xml</v>
-      </c>
-      <c r="E191">
-        <v>2584</v>
-      </c>
-      <c r="F191">
-        <v>5381</v>
-      </c>
-      <c r="G191">
-        <v>0.0007514607919999999</v>
-      </c>
-      <c r="H191">
-        <v>0.0009898823376000001</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H191"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H190"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5575,10 +5552,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50092</v>
+        <v>50276</v>
       </c>
       <c r="D2">
-        <v>181650</v>
+        <v>181416</v>
       </c>
     </row>
     <row r="3">
@@ -5589,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>385120</v>
+        <v>385169</v>
       </c>
       <c r="D3">
         <v>379716</v>
@@ -5603,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>122132</v>
+        <v>122142</v>
       </c>
       <c r="D4">
         <v>829194</v>
@@ -5614,10 +5591,10 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>615777</v>
+        <v>630469</v>
       </c>
       <c r="D5">
         <v>650043</v>
@@ -5631,10 +5608,10 @@
         <v>54</v>
       </c>
       <c r="C6">
-        <v>2274392</v>
+        <v>2275023</v>
       </c>
       <c r="D6">
-        <v>8004171</v>
+        <v>8005156</v>
       </c>
     </row>
     <row r="7">
@@ -5645,10 +5622,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>66171</v>
+        <v>66522</v>
       </c>
       <c r="D7">
-        <v>767817</v>
+        <v>771600</v>
       </c>
     </row>
     <row r="8">
@@ -5701,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3711</v>
+        <v>3717</v>
       </c>
       <c r="D11">
         <v>2478</v>
@@ -5740,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1183823</v>
+        <v>1199410</v>
       </c>
       <c r="C2">
-        <v>0.34427111809899996</v>
+        <v>0.34880402032999996</v>
       </c>
       <c r="D2">
-        <v>0.4535005721922001</v>
+        <v>0.459471661974</v>
       </c>
     </row>
     <row r="3">
@@ -5754,13 +5731,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1184238</v>
+        <v>1184439</v>
       </c>
       <c r="C3">
-        <v>0.34439180549399995</v>
+        <v>0.344450258907</v>
       </c>
       <c r="D3">
-        <v>0.45365955097320004</v>
+        <v>0.45373655033460003</v>
       </c>
     </row>
     <row r="4">
@@ -5768,13 +5745,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1184038</v>
+        <v>1184173</v>
       </c>
       <c r="C4">
-        <v>0.3443336428939999</v>
+        <v>0.34437290264899995</v>
       </c>
       <c r="D4">
-        <v>0.45358293469320005</v>
+        <v>0.4536346506822</v>
       </c>
     </row>
     <row r="5">
@@ -5782,13 +5759,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1184038</v>
+        <v>1184439</v>
       </c>
       <c r="C5">
-        <v>0.3443336428939999</v>
+        <v>0.344450258907</v>
       </c>
       <c r="D5">
-        <v>0.45358293469320005</v>
+        <v>0.45373655033460003</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.asker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.asker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4170.4648799999995</v>
+        <v>4183.295119999999</v>
       </c>
       <c r="C2">
-        <v>1601.1999599999997</v>
+        <v>1605.5610399999996</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>8340.528974000003</v>
+        <v>8434.216284999999</v>
       </c>
       <c r="F2">
-        <v>59.5</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>0.006885220650110133</v>
       </c>
       <c r="H2">
-        <v>2973.020977085258</v>
+        <v>3012.5716758494727</v>
       </c>
       <c r="I2">
         <v>85</v>
       </c>
       <c r="J2">
-        <v>1199410</v>
+        <v>1184281</v>
       </c>
       <c r="K2">
         <v>63</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10410.650149999998</v>
+        <v>10411.776400000002</v>
       </c>
       <c r="C3">
-        <v>7148.03923</v>
+        <v>7101.393180000001</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>10460.757302999999</v>
+        <v>10464.087848000003</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7148.03923</v>
+        <v>7101.393180000001</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>1184439</v>
+        <v>1184555</v>
       </c>
       <c r="K3">
         <v>63</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4390.240999999999</v>
+        <v>10061.936144999998</v>
       </c>
       <c r="C4">
-        <v>1611.1955999999996</v>
+        <v>6885.336845</v>
       </c>
       <c r="D4">
         <v>97</v>
       </c>
       <c r="E4">
-        <v>8369.340880000002</v>
+        <v>10082.504542499999</v>
       </c>
       <c r="F4">
-        <v>48.5</v>
+        <v>103</v>
       </c>
       <c r="G4">
-        <v>0.006943541535801527</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3232.574105544841</v>
+        <v>6885.336845</v>
       </c>
       <c r="I4">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J4">
-        <v>1184173</v>
+        <v>1184248</v>
       </c>
       <c r="K4">
         <v>63</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>4390.240999999999</v>
+        <v>10061.936144999998</v>
       </c>
       <c r="C5">
-        <v>1611.1955999999996</v>
+        <v>6885.336845</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>8369.340880000002</v>
+        <v>10082.504542499999</v>
       </c>
       <c r="F5">
-        <v>59.5</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <v>0.006885220650110133</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3232.574105544841</v>
+        <v>6885.336845</v>
       </c>
       <c r="I5">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J5">
-        <v>1184439</v>
+        <v>1184281</v>
       </c>
       <c r="K5">
         <v>63</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>13773</v>
+        <v>13774</v>
       </c>
       <c r="F2">
         <v>51676</v>
       </c>
       <c r="G2">
-        <v>0.004005367449</v>
+        <v>0.0040056582619999994</v>
       </c>
       <c r="H2">
-        <v>0.0052761801222</v>
+        <v>0.005276563203600001</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E3">
-        <v>26639</v>
+        <v>26638</v>
       </c>
       <c r="F3">
         <v>26276</v>
       </c>
       <c r="G3">
-        <v>0.007746967507</v>
+        <v>0.007746676693999999</v>
       </c>
       <c r="H3">
-        <v>0.0102049054146</v>
+        <v>0.010204522333200003</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E4">
-        <v>22041</v>
+        <v>22047</v>
       </c>
       <c r="F4">
         <v>21684</v>
       </c>
       <c r="G4">
-        <v>0.006409809332999999</v>
+        <v>0.0064115542109999995</v>
       </c>
       <c r="H4">
-        <v>0.0084434971374</v>
+        <v>0.008445795625800001</v>
       </c>
     </row>
     <row r="5">
@@ -712,16 +712,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E5">
-        <v>27255</v>
+        <v>27250</v>
       </c>
       <c r="F5">
         <v>26900</v>
       </c>
       <c r="G5">
-        <v>0.007926108315</v>
+        <v>0.00792465425</v>
       </c>
       <c r="H5">
-        <v>0.010440883557000001</v>
+        <v>0.010438968150000002</v>
       </c>
     </row>
     <row r="6">
@@ -738,16 +738,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E6">
-        <v>22568</v>
+        <v>22571</v>
       </c>
       <c r="F6">
         <v>22212</v>
       </c>
       <c r="G6">
-        <v>0.006563067783999999</v>
+        <v>0.006563940222999999</v>
       </c>
       <c r="H6">
-        <v>0.008645381035200001</v>
+        <v>0.008646530279400001</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E7">
-        <v>29890</v>
+        <v>29894</v>
       </c>
       <c r="F7">
         <v>29500</v>
       </c>
       <c r="G7">
-        <v>0.00869240057</v>
+        <v>0.008693563821999999</v>
       </c>
       <c r="H7">
-        <v>0.011450303046000001</v>
+        <v>0.011451835371600001</v>
       </c>
     </row>
     <row r="8">
@@ -790,16 +790,16 @@
         <v>text/css</v>
       </c>
       <c r="E8">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="F8">
         <v>10537</v>
       </c>
       <c r="G8">
-        <v>0.0008485923339999999</v>
+        <v>0.0008488831469999999</v>
       </c>
       <c r="H8">
-        <v>0.0011178315252000001</v>
+        <v>0.0011182146066</v>
       </c>
     </row>
     <row r="9">
@@ -816,16 +816,16 @@
         <v>text/css</v>
       </c>
       <c r="E9">
-        <v>36217</v>
+        <v>36207</v>
       </c>
       <c r="F9">
         <v>258216</v>
       </c>
       <c r="G9">
-        <v>0.010532374420999998</v>
+        <v>0.010529466290999998</v>
       </c>
       <c r="H9">
-        <v>0.013874059063800001</v>
+        <v>0.0138702282498</v>
       </c>
     </row>
     <row r="10">
@@ -894,16 +894,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E12">
-        <v>113268</v>
+        <v>113252</v>
       </c>
       <c r="F12">
         <v>112831</v>
       </c>
       <c r="G12">
-        <v>0.03293980688399999</v>
+        <v>0.032935153875999996</v>
       </c>
       <c r="H12">
-        <v>0.0433908640152</v>
+        <v>0.04338473471280001</v>
       </c>
     </row>
     <row r="13">
@@ -946,16 +946,16 @@
         <v>image/webp</v>
       </c>
       <c r="E14">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F14">
         <v>1742</v>
       </c>
       <c r="G14">
-        <v>0.0006261203889999999</v>
+        <v>0.0006258295759999999</v>
       </c>
       <c r="H14">
-        <v>0.0008247742542</v>
+        <v>0.0008243911728</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>image/webp</v>
       </c>
       <c r="E15">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="F15">
         <v>2350</v>
       </c>
       <c r="G15">
-        <v>0.0008046795709999999</v>
+        <v>0.0008043887579999999</v>
       </c>
       <c r="H15">
-        <v>0.0010599862338000002</v>
+        <v>0.0010596031524</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>image/webp</v>
       </c>
       <c r="E16">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="F16">
         <v>3720</v>
       </c>
       <c r="G16">
-        <v>0.0012010576899999998</v>
+        <v>0.0012013485029999998</v>
       </c>
       <c r="H16">
-        <v>0.0015821261820000002</v>
+        <v>0.0015825092634000001</v>
       </c>
     </row>
     <row r="17">
@@ -1024,16 +1024,16 @@
         <v>image/webp</v>
       </c>
       <c r="E17">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="F17">
         <v>3350</v>
       </c>
       <c r="G17">
-        <v>0.0010928752539999997</v>
+        <v>0.0010931660669999997</v>
       </c>
       <c r="H17">
-        <v>0.0014396199012000003</v>
+        <v>0.0014400029826000002</v>
       </c>
     </row>
     <row r="18">
@@ -1050,16 +1050,16 @@
         <v>image/webp</v>
       </c>
       <c r="E18">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F18">
         <v>2152</v>
       </c>
       <c r="G18">
-        <v>0.0007465169709999999</v>
+        <v>0.000746807784</v>
       </c>
       <c r="H18">
-        <v>0.0009833699538000001</v>
+        <v>0.0009837530352</v>
       </c>
     </row>
     <row r="19">
@@ -1102,16 +1102,16 @@
         <v>image/webp</v>
       </c>
       <c r="E20">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="F20">
         <v>3226</v>
       </c>
       <c r="G20">
-        <v>0.0010608858239999999</v>
+        <v>0.001060595011</v>
       </c>
       <c r="H20">
-        <v>0.0013974809472</v>
+        <v>0.0013970978658000002</v>
       </c>
     </row>
     <row r="21">
@@ -1180,16 +1180,16 @@
         <v>image/webp</v>
       </c>
       <c r="E23">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="F23">
         <v>4452</v>
       </c>
       <c r="G23">
-        <v>0.0014150960579999998</v>
+        <v>0.001414805245</v>
       </c>
       <c r="H23">
-        <v>0.0018640740923999998</v>
+        <v>0.0018636910110000002</v>
       </c>
     </row>
     <row r="24">
@@ -1206,16 +1206,16 @@
         <v>image/webp</v>
       </c>
       <c r="E24">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="F24">
         <v>4116</v>
       </c>
       <c r="G24">
-        <v>0.0013173828899999999</v>
+        <v>0.001317673703</v>
       </c>
       <c r="H24">
-        <v>0.0017353587420000003</v>
+        <v>0.0017357418234000002</v>
       </c>
     </row>
     <row r="25">
@@ -1232,16 +1232,16 @@
         <v>image/webp</v>
       </c>
       <c r="E25">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="F25">
         <v>4382</v>
       </c>
       <c r="G25">
-        <v>0.0013970656519999998</v>
+        <v>0.0013967748389999998</v>
       </c>
       <c r="H25">
-        <v>0.0018403230456000004</v>
+        <v>0.0018399399641999999</v>
       </c>
     </row>
     <row r="26">
@@ -1284,16 +1284,16 @@
         <v>image/webp</v>
       </c>
       <c r="E27">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="F27">
         <v>2656</v>
       </c>
       <c r="G27">
-        <v>0.0008948316009999999</v>
+        <v>0.0008945407879999999</v>
       </c>
       <c r="H27">
-        <v>0.0011787414678000002</v>
+        <v>0.0011783583864000001</v>
       </c>
     </row>
     <row r="28">
@@ -1336,16 +1336,16 @@
         <v>image/webp</v>
       </c>
       <c r="E29">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="F29">
         <v>3490</v>
       </c>
       <c r="G29">
-        <v>0.0011341707</v>
+        <v>0.0011338798869999999</v>
       </c>
       <c r="H29">
-        <v>0.0014940174600000002</v>
+        <v>0.0014936343786</v>
       </c>
     </row>
     <row r="30">
@@ -1388,16 +1388,16 @@
         <v>image/webp</v>
       </c>
       <c r="E31">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="F31">
         <v>4674</v>
       </c>
       <c r="G31">
-        <v>0.0014776208529999999</v>
+        <v>0.0014773300399999998</v>
       </c>
       <c r="H31">
-        <v>0.0019464365934000005</v>
+        <v>0.001946053512</v>
       </c>
     </row>
     <row r="32">
@@ -1466,16 +1466,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E34">
-        <v>31129</v>
+        <v>31130</v>
       </c>
       <c r="F34">
         <v>88370</v>
       </c>
       <c r="G34">
-        <v>0.009052717876999999</v>
+        <v>0.009053008689999998</v>
       </c>
       <c r="H34">
-        <v>0.011924940900600001</v>
+        <v>0.011925323982000002</v>
       </c>
     </row>
     <row r="35">
@@ -1492,16 +1492,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E35">
-        <v>32205</v>
+        <v>32204</v>
       </c>
       <c r="F35">
         <v>106622</v>
       </c>
       <c r="G35">
-        <v>0.009365632664999998</v>
+        <v>0.009365341851999998</v>
       </c>
       <c r="H35">
-        <v>0.012337136487000001</v>
+        <v>0.012336753405600002</v>
       </c>
     </row>
     <row r="36">
@@ -1518,16 +1518,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E36">
-        <v>104785</v>
+        <v>104781</v>
       </c>
       <c r="F36">
         <v>359431</v>
       </c>
       <c r="G36">
-        <v>0.030472840204999997</v>
+        <v>0.030471676952999998</v>
       </c>
       <c r="H36">
-        <v>0.040141184499</v>
+        <v>0.0401396521734</v>
       </c>
     </row>
     <row r="37">
@@ -1544,16 +1544,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E37">
-        <v>6509</v>
+        <v>6513</v>
       </c>
       <c r="F37">
         <v>17612</v>
       </c>
       <c r="G37">
-        <v>0.0018929018169999998</v>
+        <v>0.0018940650689999998</v>
       </c>
       <c r="H37">
-        <v>0.0024934768326</v>
+        <v>0.0024950091582000003</v>
       </c>
     </row>
     <row r="38">
@@ -1570,16 +1570,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E38">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="F38">
         <v>11000</v>
       </c>
       <c r="G38">
-        <v>0.0012097820799999999</v>
+        <v>0.0012100728929999999</v>
       </c>
       <c r="H38">
-        <v>0.0015936186240000003</v>
+        <v>0.0015940017054</v>
       </c>
     </row>
     <row r="39">
@@ -1674,16 +1674,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E42">
-        <v>104282</v>
+        <v>104272</v>
       </c>
       <c r="F42">
-        <v>293586</v>
+        <v>293569</v>
       </c>
       <c r="G42">
-        <v>0.030326561265999995</v>
+        <v>0.030323653136</v>
       </c>
       <c r="H42">
-        <v>0.039948494554800006</v>
+        <v>0.0399446637408</v>
       </c>
     </row>
     <row r="43">
@@ -1726,16 +1726,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E44">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F44">
         <v>591</v>
       </c>
       <c r="G44">
-        <v>0.00022247194499999998</v>
+        <v>0.00022276275799999997</v>
       </c>
       <c r="H44">
-        <v>0.00029305727100000005</v>
+        <v>0.0002934403524</v>
       </c>
     </row>
     <row r="45">
@@ -1752,16 +1752,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E45">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F45">
         <v>265</v>
       </c>
       <c r="G45">
-        <v>0.00015791145899999998</v>
+        <v>0.000158202272</v>
       </c>
       <c r="H45">
-        <v>0.00020801320020000003</v>
+        <v>0.0002083962816</v>
       </c>
     </row>
     <row r="46">
@@ -1804,16 +1804,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E47">
-        <v>13748</v>
+        <v>13749</v>
       </c>
       <c r="F47">
         <v>45002</v>
       </c>
       <c r="G47">
-        <v>0.0039980971239999994</v>
+        <v>0.003998387936999999</v>
       </c>
       <c r="H47">
-        <v>0.0052666030872</v>
+        <v>0.005266986168600001</v>
       </c>
     </row>
     <row r="48">
@@ -1856,16 +1856,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E49">
-        <v>325294</v>
+        <v>325285</v>
       </c>
       <c r="F49">
         <v>1249958</v>
       </c>
       <c r="G49">
-        <v>0.09459972402199998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H49">
-        <v>0.12461408093160001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="50">
@@ -1960,16 +1960,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E53">
-        <v>14495</v>
+        <v>14494</v>
       </c>
       <c r="F53">
         <v>147236</v>
       </c>
       <c r="G53">
-        <v>0.004215334435</v>
+        <v>0.004215043621999999</v>
       </c>
       <c r="H53">
-        <v>0.005552764893</v>
+        <v>0.005552381811599999</v>
       </c>
     </row>
     <row r="54">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=457&amp;luid=4fe4b56d-ae18-4aec-b001-5328d9325723&amp;prev=7bdf8b78-f080-2528-a554-6685fad316ea&amp;rnd=66550</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=427&amp;luid=3adb3cce-2540-d3d5-e42c-8f8ca7e808e5&amp;prev=c2a69a8b-91e3-193e-f8c9-0d7a301f9309&amp;rnd=75498</v>
       </c>
       <c r="C54" t="str">
         <v>Image</v>
@@ -2139,16 +2139,16 @@
         <v>text/json</v>
       </c>
       <c r="E60">
-        <v>7413</v>
+        <v>7412</v>
       </c>
       <c r="F60">
         <v>28951</v>
       </c>
       <c r="G60">
-        <v>0.0021557967689999997</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H60">
-        <v>0.0028397824181999997</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="61">
@@ -2165,16 +2165,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E61">
-        <v>25478</v>
+        <v>10388</v>
       </c>
       <c r="F61">
         <v>25100</v>
       </c>
       <c r="G61">
-        <v>0.007409333613999999</v>
+        <v>0.0030209654439999995</v>
       </c>
       <c r="H61">
-        <v>0.0097601479092</v>
+        <v>0.003979449583200001</v>
       </c>
     </row>
     <row r="62">
@@ -2191,16 +2191,16 @@
         <v>image/webp</v>
       </c>
       <c r="E62">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F62">
         <v>826</v>
       </c>
       <c r="G62">
-        <v>0.000360317307</v>
+        <v>0.000360026494</v>
       </c>
       <c r="H62">
-        <v>0.00047463785459999995</v>
+        <v>0.0004742547732</v>
       </c>
     </row>
     <row r="63">
@@ -2211,22 +2211,19 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C63" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D63" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E63">
-        <v>200</v>
-      </c>
-      <c r="F63">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.00005816259999999999</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.00007661628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2237,19 +2234,22 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C64" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D64" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>96</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="65">
@@ -2266,16 +2266,16 @@
         <v>text/html</v>
       </c>
       <c r="E65">
-        <v>13775</v>
+        <v>13774</v>
       </c>
       <c r="F65">
         <v>51676</v>
       </c>
       <c r="G65">
-        <v>0.004005949074999999</v>
+        <v>0.0040056582619999994</v>
       </c>
       <c r="H65">
-        <v>0.005276946285</v>
+        <v>0.005276563203600001</v>
       </c>
     </row>
     <row r="66">
@@ -2292,16 +2292,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E66">
-        <v>26660</v>
+        <v>26650</v>
       </c>
       <c r="F66">
         <v>26276</v>
       </c>
       <c r="G66">
-        <v>0.007753074579999999</v>
+        <v>0.007750166449999998</v>
       </c>
       <c r="H66">
-        <v>0.010212950124</v>
+        <v>0.010209119309999999</v>
       </c>
     </row>
     <row r="67">
@@ -2318,16 +2318,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E67">
-        <v>22037</v>
+        <v>22050</v>
       </c>
       <c r="F67">
         <v>21684</v>
       </c>
       <c r="G67">
-        <v>0.006408646080999999</v>
+        <v>0.006412426649999999</v>
       </c>
       <c r="H67">
-        <v>0.008441964811800002</v>
+        <v>0.00844694487</v>
       </c>
     </row>
     <row r="68">
@@ -2344,16 +2344,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E68">
-        <v>27268</v>
+        <v>27265</v>
       </c>
       <c r="F68">
         <v>26900</v>
       </c>
       <c r="G68">
-        <v>0.007929888884</v>
+        <v>0.007929016445</v>
       </c>
       <c r="H68">
-        <v>0.010445863615200002</v>
+        <v>0.010444714371000002</v>
       </c>
     </row>
     <row r="69">
@@ -2370,16 +2370,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E69">
-        <v>22564</v>
+        <v>22565</v>
       </c>
       <c r="F69">
         <v>22212</v>
       </c>
       <c r="G69">
-        <v>0.006561904531999999</v>
+        <v>0.006562195344999999</v>
       </c>
       <c r="H69">
-        <v>0.0086438487096</v>
+        <v>0.008644231791000002</v>
       </c>
     </row>
     <row r="70">
@@ -2396,16 +2396,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E70">
-        <v>29893</v>
+        <v>29905</v>
       </c>
       <c r="F70">
         <v>29500</v>
       </c>
       <c r="G70">
-        <v>0.008693273008999998</v>
+        <v>0.008696762765</v>
       </c>
       <c r="H70">
-        <v>0.0114514522902</v>
+        <v>0.011456049267000001</v>
       </c>
     </row>
     <row r="71">
@@ -2448,16 +2448,16 @@
         <v>text/css</v>
       </c>
       <c r="E72">
-        <v>36223</v>
+        <v>36220</v>
       </c>
       <c r="F72">
         <v>258216</v>
       </c>
       <c r="G72">
-        <v>0.010534119298999998</v>
+        <v>0.01053324686</v>
       </c>
       <c r="H72">
-        <v>0.0138763575522</v>
+        <v>0.013875208308000002</v>
       </c>
     </row>
     <row r="73">
@@ -2500,16 +2500,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E74">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="F74">
         <v>6167</v>
       </c>
       <c r="G74">
-        <v>0.0008075877009999999</v>
+        <v>0.0008087509529999999</v>
       </c>
       <c r="H74">
-        <v>0.0010638170478</v>
+        <v>0.0010653493734</v>
       </c>
     </row>
     <row r="75">
@@ -2526,16 +2526,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>113258</v>
+        <v>113330</v>
       </c>
       <c r="F75">
         <v>112831</v>
       </c>
       <c r="G75">
-        <v>0.032936898754</v>
+        <v>0.03295783729</v>
       </c>
       <c r="H75">
-        <v>0.043387033201200007</v>
+        <v>0.043414615062</v>
       </c>
     </row>
     <row r="76">
@@ -2578,16 +2578,16 @@
         <v>image/webp</v>
       </c>
       <c r="E77">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F77">
         <v>1742</v>
       </c>
       <c r="G77">
-        <v>0.0006261203889999999</v>
+        <v>0.0006258295759999999</v>
       </c>
       <c r="H77">
-        <v>0.0008247742542</v>
+        <v>0.0008243911728</v>
       </c>
     </row>
     <row r="78">
@@ -2604,16 +2604,16 @@
         <v>image/webp</v>
       </c>
       <c r="E78">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="F78">
         <v>2350</v>
       </c>
       <c r="G78">
-        <v>0.0008046795709999999</v>
+        <v>0.0008043887579999999</v>
       </c>
       <c r="H78">
-        <v>0.0010599862338000002</v>
+        <v>0.0010596031524</v>
       </c>
     </row>
     <row r="79">
@@ -2630,16 +2630,16 @@
         <v>image/webp</v>
       </c>
       <c r="E79">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="F79">
         <v>3720</v>
       </c>
       <c r="G79">
-        <v>0.0012010576899999998</v>
+        <v>0.0012013485029999998</v>
       </c>
       <c r="H79">
-        <v>0.0015821261820000002</v>
+        <v>0.0015825092634000001</v>
       </c>
     </row>
     <row r="80">
@@ -2656,16 +2656,16 @@
         <v>image/webp</v>
       </c>
       <c r="E80">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="F80">
         <v>3350</v>
       </c>
       <c r="G80">
-        <v>0.0010937476929999998</v>
+        <v>0.0010931660669999997</v>
       </c>
       <c r="H80">
-        <v>0.0014407691454000004</v>
+        <v>0.0014400029826000002</v>
       </c>
     </row>
     <row r="81">
@@ -2682,16 +2682,16 @@
         <v>image/webp</v>
       </c>
       <c r="E81">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="F81">
         <v>2152</v>
       </c>
       <c r="G81">
-        <v>0.0007465169709999999</v>
+        <v>0.0007476802229999999</v>
       </c>
       <c r="H81">
-        <v>0.0009833699538000001</v>
+        <v>0.0009849022794</v>
       </c>
     </row>
     <row r="82">
@@ -2708,16 +2708,16 @@
         <v>image/webp</v>
       </c>
       <c r="E82">
-        <v>5036</v>
+        <v>5039</v>
       </c>
       <c r="F82">
         <v>4624</v>
       </c>
       <c r="G82">
-        <v>0.0014645342679999998</v>
+        <v>0.0014654067069999998</v>
       </c>
       <c r="H82">
-        <v>0.0019291979304000002</v>
+        <v>0.0019303471746000003</v>
       </c>
     </row>
     <row r="83">
@@ -2734,16 +2734,16 @@
         <v>image/webp</v>
       </c>
       <c r="E83">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="F83">
         <v>3226</v>
       </c>
       <c r="G83">
-        <v>0.0010608858239999999</v>
+        <v>0.001060595011</v>
       </c>
       <c r="H83">
-        <v>0.0013974809472</v>
+        <v>0.0013970978658000002</v>
       </c>
     </row>
     <row r="84">
@@ -2760,16 +2760,16 @@
         <v>image/webp</v>
       </c>
       <c r="E84">
-        <v>5451</v>
+        <v>5457</v>
       </c>
       <c r="F84">
         <v>5042</v>
       </c>
       <c r="G84">
-        <v>0.0015852216629999997</v>
+        <v>0.0015869665409999998</v>
       </c>
       <c r="H84">
-        <v>0.0020881767114000003</v>
+        <v>0.0020904751998</v>
       </c>
     </row>
     <row r="85">
@@ -2786,16 +2786,16 @@
         <v>image/webp</v>
       </c>
       <c r="E85">
-        <v>4523</v>
+        <v>4517</v>
       </c>
       <c r="F85">
         <v>4106</v>
       </c>
       <c r="G85">
-        <v>0.0013153471989999998</v>
+        <v>0.0013136023209999999</v>
       </c>
       <c r="H85">
-        <v>0.0017326771722</v>
+        <v>0.0017303786838000002</v>
       </c>
     </row>
     <row r="86">
@@ -2812,16 +2812,16 @@
         <v>image/webp</v>
       </c>
       <c r="E86">
-        <v>4866</v>
+        <v>4871</v>
       </c>
       <c r="F86">
         <v>4452</v>
       </c>
       <c r="G86">
-        <v>0.0014150960579999998</v>
+        <v>0.0014165501229999999</v>
       </c>
       <c r="H86">
-        <v>0.0018640740923999998</v>
+        <v>0.0018659894993999998</v>
       </c>
     </row>
     <row r="87">
@@ -2838,16 +2838,16 @@
         <v>image/webp</v>
       </c>
       <c r="E87">
-        <v>4533</v>
+        <v>4537</v>
       </c>
       <c r="F87">
         <v>4116</v>
       </c>
       <c r="G87">
-        <v>0.001318255329</v>
+        <v>0.001319418581</v>
       </c>
       <c r="H87">
-        <v>0.0017365079862000001</v>
+        <v>0.0017380403118</v>
       </c>
     </row>
     <row r="88">
@@ -2864,16 +2864,16 @@
         <v>image/webp</v>
       </c>
       <c r="E88">
-        <v>4804</v>
+        <v>4806</v>
       </c>
       <c r="F88">
         <v>4382</v>
       </c>
       <c r="G88">
-        <v>0.0013970656519999998</v>
+        <v>0.0013976472779999999</v>
       </c>
       <c r="H88">
-        <v>0.0018403230456000004</v>
+        <v>0.0018410892084</v>
       </c>
     </row>
     <row r="89">
@@ -2916,16 +2916,16 @@
         <v>image/webp</v>
       </c>
       <c r="E90">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="F90">
         <v>2656</v>
       </c>
       <c r="G90">
-        <v>0.0008957040399999998</v>
+        <v>0.0008945407879999999</v>
       </c>
       <c r="H90">
-        <v>0.001179890712</v>
+        <v>0.0011783583864000001</v>
       </c>
     </row>
     <row r="91">
@@ -2942,16 +2942,16 @@
         <v>image/webp</v>
       </c>
       <c r="E91">
-        <v>3799</v>
+        <v>3796</v>
       </c>
       <c r="F91">
         <v>3384</v>
       </c>
       <c r="G91">
-        <v>0.0011047985869999998</v>
+        <v>0.0011039261479999997</v>
       </c>
       <c r="H91">
-        <v>0.0014553262386</v>
+        <v>0.0014541769944</v>
       </c>
     </row>
     <row r="92">
@@ -2968,16 +2968,16 @@
         <v>image/webp</v>
       </c>
       <c r="E92">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="F92">
         <v>3490</v>
       </c>
       <c r="G92">
-        <v>0.0011350431389999997</v>
+        <v>0.0011347523259999997</v>
       </c>
       <c r="H92">
-        <v>0.0014951667042000002</v>
+        <v>0.0014947836228000003</v>
       </c>
     </row>
     <row r="93">
@@ -3020,16 +3020,16 @@
         <v>image/webp</v>
       </c>
       <c r="E94">
-        <v>5087</v>
+        <v>5083</v>
       </c>
       <c r="F94">
         <v>4674</v>
       </c>
       <c r="G94">
-        <v>0.0014793657309999997</v>
+        <v>0.001478202479</v>
       </c>
       <c r="H94">
-        <v>0.0019487350818000004</v>
+        <v>0.0019472027562000003</v>
       </c>
     </row>
     <row r="95">
@@ -3046,16 +3046,16 @@
         <v>image/webp</v>
       </c>
       <c r="E95">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="F95">
         <v>4732</v>
       </c>
       <c r="G95">
-        <v>0.001498850202</v>
+        <v>0.001497977763</v>
       </c>
       <c r="H95">
-        <v>0.0019744015356</v>
+        <v>0.0019732522914000005</v>
       </c>
     </row>
     <row r="96">
@@ -3072,16 +3072,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E96">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="F96">
         <v>3310</v>
       </c>
       <c r="G96">
-        <v>0.000588314699</v>
+        <v>0.0005891871379999999</v>
       </c>
       <c r="H96">
-        <v>0.0007749736722000002</v>
+        <v>0.0007761229164000001</v>
       </c>
     </row>
     <row r="97">
@@ -3098,16 +3098,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E97">
-        <v>31141</v>
+        <v>31151</v>
       </c>
       <c r="F97">
         <v>88370</v>
       </c>
       <c r="G97">
-        <v>0.009056207633</v>
+        <v>0.009059115763</v>
       </c>
       <c r="H97">
-        <v>0.0119295378774</v>
+        <v>0.011933368691400001</v>
       </c>
     </row>
     <row r="98">
@@ -3124,16 +3124,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>32217</v>
+        <v>32221</v>
       </c>
       <c r="F98">
         <v>106622</v>
       </c>
       <c r="G98">
-        <v>0.009369122421</v>
+        <v>0.009370285672999999</v>
       </c>
       <c r="H98">
-        <v>0.0123417334638</v>
+        <v>0.012343265789400001</v>
       </c>
     </row>
     <row r="99">
@@ -3150,16 +3150,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E99">
-        <v>104826</v>
+        <v>104828</v>
       </c>
       <c r="F99">
         <v>359431</v>
       </c>
       <c r="G99">
-        <v>0.030484763537999993</v>
+        <v>0.030485345163999998</v>
       </c>
       <c r="H99">
-        <v>0.040156890836400005</v>
+        <v>0.04015765699920001</v>
       </c>
     </row>
     <row r="100">
@@ -3176,16 +3176,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E100">
-        <v>6515</v>
+        <v>6513</v>
       </c>
       <c r="F100">
         <v>17612</v>
       </c>
       <c r="G100">
-        <v>0.0018946466949999999</v>
+        <v>0.0018940650689999998</v>
       </c>
       <c r="H100">
-        <v>0.0024957753210000004</v>
+        <v>0.0024950091582000003</v>
       </c>
     </row>
     <row r="101">
@@ -3202,16 +3202,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E101">
-        <v>4160</v>
+        <v>4164</v>
       </c>
       <c r="F101">
         <v>11000</v>
       </c>
       <c r="G101">
-        <v>0.0012097820799999999</v>
+        <v>0.001210945332</v>
       </c>
       <c r="H101">
-        <v>0.0015936186240000003</v>
+        <v>0.0015951509496</v>
       </c>
     </row>
     <row r="102">
@@ -3306,16 +3306,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>104280</v>
+        <v>104281</v>
       </c>
       <c r="F105">
-        <v>293596</v>
+        <v>293589</v>
       </c>
       <c r="G105">
-        <v>0.030325979639999997</v>
+        <v>0.030326270452999994</v>
       </c>
       <c r="H105">
-        <v>0.039947728392</v>
+        <v>0.0399481114734</v>
       </c>
     </row>
     <row r="106">
@@ -3358,16 +3358,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E107">
-        <v>12385</v>
+        <v>12387</v>
       </c>
       <c r="F107">
         <v>41113</v>
       </c>
       <c r="G107">
-        <v>0.0036017190049999993</v>
+        <v>0.0036023006309999993</v>
       </c>
       <c r="H107">
-        <v>0.004744463139</v>
+        <v>0.0047452293018</v>
       </c>
     </row>
     <row r="108">
@@ -3384,16 +3384,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E108">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F108">
         <v>591</v>
       </c>
       <c r="G108">
-        <v>0.00022247194499999998</v>
+        <v>0.00022276275799999997</v>
       </c>
       <c r="H108">
-        <v>0.00029305727100000005</v>
+        <v>0.0002934403524</v>
       </c>
     </row>
     <row r="109">
@@ -3410,16 +3410,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E109">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F109">
         <v>265</v>
       </c>
       <c r="G109">
-        <v>0.00015791145899999998</v>
+        <v>0.000158202272</v>
       </c>
       <c r="H109">
-        <v>0.00020801320020000003</v>
+        <v>0.0002083962816</v>
       </c>
     </row>
     <row r="110">
@@ -3436,16 +3436,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E110">
-        <v>13752</v>
+        <v>13754</v>
       </c>
       <c r="F110">
         <v>45002</v>
       </c>
       <c r="G110">
-        <v>0.0039992603759999995</v>
+        <v>0.003999842001999999</v>
       </c>
       <c r="H110">
-        <v>0.0052681354128</v>
+        <v>0.0052689015756</v>
       </c>
     </row>
     <row r="111">
@@ -3540,16 +3540,16 @@
         <v>text/html</v>
       </c>
       <c r="E114">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="F114">
         <v>8796</v>
       </c>
       <c r="G114">
-        <v>0.0008750563169999999</v>
+        <v>0.0008753471299999999</v>
       </c>
       <c r="H114">
-        <v>0.0011526919326</v>
+        <v>0.001153075014</v>
       </c>
     </row>
     <row r="115">
@@ -3566,16 +3566,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>14495</v>
+        <v>14496</v>
       </c>
       <c r="F115">
         <v>147236</v>
       </c>
       <c r="G115">
-        <v>0.004215334435</v>
+        <v>0.004215625248</v>
       </c>
       <c r="H115">
-        <v>0.005552764893</v>
+        <v>0.0055531479744</v>
       </c>
     </row>
     <row r="116">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=455&amp;luid=f124d4fc-7aa5-b6f7-b17c-f36c18cbd560&amp;prev=10d3bd4a-56d7-776a-206a-dba87528fc98&amp;rnd=30194</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=443&amp;luid=019112b6-00ca-8348-fc62-e937a4d21ed8&amp;prev=e33e9b74-948c-6039-9cb5-321204a41474&amp;rnd=57332</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3618,16 +3618,16 @@
         <v>application/manifest+json</v>
       </c>
       <c r="E117">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F117">
         <v>478</v>
       </c>
       <c r="G117">
-        <v>0.00022363519699999997</v>
+        <v>0.00022421682299999997</v>
       </c>
       <c r="H117">
-        <v>0.00029458959660000003</v>
+        <v>0.00029535575940000004</v>
       </c>
     </row>
     <row r="118">
@@ -3745,16 +3745,16 @@
         <v>text/json</v>
       </c>
       <c r="E122">
-        <v>7412</v>
+        <v>7413</v>
       </c>
       <c r="F122">
         <v>28951</v>
       </c>
       <c r="G122">
-        <v>0.0021555059559999995</v>
+        <v>0.0021557967689999997</v>
       </c>
       <c r="H122">
-        <v>0.0028393993368000005</v>
+        <v>0.0028397824181999997</v>
       </c>
     </row>
     <row r="123">
@@ -3797,16 +3797,16 @@
         <v>image/webp</v>
       </c>
       <c r="E124">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F124">
         <v>826</v>
       </c>
       <c r="G124">
-        <v>0.000360317307</v>
+        <v>0.000360026494</v>
       </c>
       <c r="H124">
-        <v>0.00047463785459999995</v>
+        <v>0.0004742547732</v>
       </c>
     </row>
     <row r="125">
@@ -3898,16 +3898,16 @@
         <v>text/html</v>
       </c>
       <c r="E128">
-        <v>13699</v>
+        <v>13756</v>
       </c>
       <c r="F128">
         <v>51676</v>
       </c>
       <c r="G128">
-        <v>0.003983847286999999</v>
+        <v>0.004000423628</v>
       </c>
       <c r="H128">
-        <v>0.005247832098600001</v>
+        <v>0.0052696677384</v>
       </c>
     </row>
     <row r="129">
@@ -3924,16 +3924,16 @@
         <v>application/font-woff</v>
       </c>
       <c r="E129">
-        <v>26631</v>
+        <v>26632</v>
       </c>
       <c r="F129">
         <v>26276</v>
       </c>
       <c r="G129">
-        <v>0.007744641003</v>
+        <v>0.007744931815999999</v>
       </c>
       <c r="H129">
-        <v>0.0102018407634</v>
+        <v>0.0102022238448</v>
       </c>
     </row>
     <row r="130">
@@ -3950,16 +3950,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E130">
-        <v>22032</v>
+        <v>22041</v>
       </c>
       <c r="F130">
         <v>21684</v>
       </c>
       <c r="G130">
-        <v>0.006407192015999999</v>
+        <v>0.006409809332999999</v>
       </c>
       <c r="H130">
-        <v>0.008440049404799999</v>
+        <v>0.0084434971374</v>
       </c>
     </row>
     <row r="131">
@@ -4002,16 +4002,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E132">
-        <v>22559</v>
+        <v>22558</v>
       </c>
       <c r="F132">
         <v>22212</v>
       </c>
       <c r="G132">
-        <v>0.006560450466999999</v>
+        <v>0.0065601596539999986</v>
       </c>
       <c r="H132">
-        <v>0.008641933302600002</v>
+        <v>0.0086415502212</v>
       </c>
     </row>
     <row r="133">
@@ -4054,16 +4054,16 @@
         <v>text/css</v>
       </c>
       <c r="E134">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="F134">
         <v>10537</v>
       </c>
       <c r="G134">
-        <v>0.0008485923339999999</v>
+        <v>0.0008488831469999999</v>
       </c>
       <c r="H134">
-        <v>0.0011178315252000001</v>
+        <v>0.0011182146066</v>
       </c>
     </row>
     <row r="135">
@@ -4080,16 +4080,16 @@
         <v>text/css</v>
       </c>
       <c r="E135">
-        <v>36209</v>
+        <v>36217</v>
       </c>
       <c r="F135">
         <v>258216</v>
       </c>
       <c r="G135">
-        <v>0.010530047916999997</v>
+        <v>0.010532374420999998</v>
       </c>
       <c r="H135">
-        <v>0.0138709944126</v>
+        <v>0.013874059063800001</v>
       </c>
     </row>
     <row r="136">
@@ -4158,16 +4158,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E138">
-        <v>113262</v>
+        <v>113274</v>
       </c>
       <c r="F138">
         <v>112831</v>
       </c>
       <c r="G138">
-        <v>0.032938062005999996</v>
+        <v>0.032941551762</v>
       </c>
       <c r="H138">
-        <v>0.0433885655268</v>
+        <v>0.04339316250360001</v>
       </c>
     </row>
     <row r="139">
@@ -4210,16 +4210,16 @@
         <v>image/webp</v>
       </c>
       <c r="E140">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F140">
         <v>1742</v>
       </c>
       <c r="G140">
-        <v>0.0006261203889999999</v>
+        <v>0.0006258295759999999</v>
       </c>
       <c r="H140">
-        <v>0.0008247742542</v>
+        <v>0.0008243911728</v>
       </c>
     </row>
     <row r="141">
@@ -4236,16 +4236,16 @@
         <v>image/webp</v>
       </c>
       <c r="E141">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="F141">
         <v>2350</v>
       </c>
       <c r="G141">
-        <v>0.0008046795709999999</v>
+        <v>0.0008043887579999999</v>
       </c>
       <c r="H141">
-        <v>0.0010599862338000002</v>
+        <v>0.0010596031524</v>
       </c>
     </row>
     <row r="142">
@@ -4262,16 +4262,16 @@
         <v>image/webp</v>
       </c>
       <c r="E142">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="F142">
         <v>3720</v>
       </c>
       <c r="G142">
-        <v>0.0012010576899999998</v>
+        <v>0.0012013485029999998</v>
       </c>
       <c r="H142">
-        <v>0.0015821261820000002</v>
+        <v>0.0015825092634000001</v>
       </c>
     </row>
     <row r="143">
@@ -4288,16 +4288,16 @@
         <v>image/webp</v>
       </c>
       <c r="E143">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="F143">
         <v>3350</v>
       </c>
       <c r="G143">
-        <v>0.0010928752539999997</v>
+        <v>0.0010931660669999997</v>
       </c>
       <c r="H143">
-        <v>0.0014396199012000003</v>
+        <v>0.0014400029826000002</v>
       </c>
     </row>
     <row r="144">
@@ -4314,16 +4314,16 @@
         <v>image/webp</v>
       </c>
       <c r="E144">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F144">
         <v>2152</v>
       </c>
       <c r="G144">
-        <v>0.0007465169709999999</v>
+        <v>0.000746807784</v>
       </c>
       <c r="H144">
-        <v>0.0009833699538000001</v>
+        <v>0.0009837530352</v>
       </c>
     </row>
     <row r="145">
@@ -4366,16 +4366,16 @@
         <v>image/webp</v>
       </c>
       <c r="E146">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="F146">
         <v>3226</v>
       </c>
       <c r="G146">
-        <v>0.0010608858239999999</v>
+        <v>0.001060595011</v>
       </c>
       <c r="H146">
-        <v>0.0013974809472</v>
+        <v>0.0013970978658000002</v>
       </c>
     </row>
     <row r="147">
@@ -4444,16 +4444,16 @@
         <v>image/webp</v>
       </c>
       <c r="E149">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="F149">
         <v>4452</v>
       </c>
       <c r="G149">
-        <v>0.0014150960579999998</v>
+        <v>0.001414805245</v>
       </c>
       <c r="H149">
-        <v>0.0018640740923999998</v>
+        <v>0.0018636910110000002</v>
       </c>
     </row>
     <row r="150">
@@ -4470,16 +4470,16 @@
         <v>image/webp</v>
       </c>
       <c r="E150">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="F150">
         <v>4116</v>
       </c>
       <c r="G150">
-        <v>0.0013173828899999999</v>
+        <v>0.001317673703</v>
       </c>
       <c r="H150">
-        <v>0.0017353587420000003</v>
+        <v>0.0017357418234000002</v>
       </c>
     </row>
     <row r="151">
@@ -4496,16 +4496,16 @@
         <v>image/webp</v>
       </c>
       <c r="E151">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="F151">
         <v>4382</v>
       </c>
       <c r="G151">
-        <v>0.0013970656519999998</v>
+        <v>0.0013967748389999998</v>
       </c>
       <c r="H151">
-        <v>0.0018403230456000004</v>
+        <v>0.0018399399641999999</v>
       </c>
     </row>
     <row r="152">
@@ -4548,16 +4548,16 @@
         <v>image/webp</v>
       </c>
       <c r="E153">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="F153">
         <v>2656</v>
       </c>
       <c r="G153">
-        <v>0.0008948316009999999</v>
+        <v>0.0008945407879999999</v>
       </c>
       <c r="H153">
-        <v>0.0011787414678000002</v>
+        <v>0.0011783583864000001</v>
       </c>
     </row>
     <row r="154">
@@ -4600,16 +4600,16 @@
         <v>image/webp</v>
       </c>
       <c r="E155">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="F155">
         <v>3490</v>
       </c>
       <c r="G155">
-        <v>0.0011341707</v>
+        <v>0.0011338798869999999</v>
       </c>
       <c r="H155">
-        <v>0.0014940174600000002</v>
+        <v>0.0014936343786</v>
       </c>
     </row>
     <row r="156">
@@ -4652,16 +4652,16 @@
         <v>image/webp</v>
       </c>
       <c r="E157">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="F157">
         <v>4674</v>
       </c>
       <c r="G157">
-        <v>0.0014776208529999999</v>
+        <v>0.0014773300399999998</v>
       </c>
       <c r="H157">
-        <v>0.0019464365934000005</v>
+        <v>0.001946053512</v>
       </c>
     </row>
     <row r="158">
@@ -4730,16 +4730,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E160">
-        <v>31129</v>
+        <v>31130</v>
       </c>
       <c r="F160">
         <v>88370</v>
       </c>
       <c r="G160">
-        <v>0.009052717876999999</v>
+        <v>0.009053008689999998</v>
       </c>
       <c r="H160">
-        <v>0.011924940900600001</v>
+        <v>0.011925323982000002</v>
       </c>
     </row>
     <row r="161">
@@ -4782,16 +4782,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E162">
-        <v>104786</v>
+        <v>104783</v>
       </c>
       <c r="F162">
         <v>359431</v>
       </c>
       <c r="G162">
-        <v>0.030473131017999994</v>
+        <v>0.030472258578999996</v>
       </c>
       <c r="H162">
-        <v>0.0401415675804</v>
+        <v>0.040140418336199996</v>
       </c>
     </row>
     <row r="163">
@@ -4808,16 +4808,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E163">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="F163">
         <v>17612</v>
       </c>
       <c r="G163">
-        <v>0.0018929018169999998</v>
+        <v>0.0018931926299999998</v>
       </c>
       <c r="H163">
-        <v>0.0024934768326</v>
+        <v>0.0024938599140000004</v>
       </c>
     </row>
     <row r="164">
@@ -4938,16 +4938,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E168">
-        <v>104281</v>
+        <v>104278</v>
       </c>
       <c r="F168">
-        <v>293589</v>
+        <v>293596</v>
       </c>
       <c r="G168">
-        <v>0.030326270452999994</v>
+        <v>0.030325398013999996</v>
       </c>
       <c r="H168">
-        <v>0.0399481114734</v>
+        <v>0.0399469622292</v>
       </c>
     </row>
     <row r="169">
@@ -4964,16 +4964,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E169">
-        <v>46699</v>
+        <v>46698</v>
       </c>
       <c r="F169">
         <v>122876</v>
       </c>
       <c r="G169">
-        <v>0.013580676286999998</v>
+        <v>0.013580385473999998</v>
       </c>
       <c r="H169">
-        <v>0.017889518298600002</v>
+        <v>0.0178891352172</v>
       </c>
     </row>
     <row r="170">
@@ -4990,16 +4990,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E170">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F170">
         <v>591</v>
       </c>
       <c r="G170">
-        <v>0.00022247194499999998</v>
+        <v>0.00022276275799999997</v>
       </c>
       <c r="H170">
-        <v>0.00029305727100000005</v>
+        <v>0.0002934403524</v>
       </c>
     </row>
     <row r="171">
@@ -5016,16 +5016,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E171">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F171">
         <v>265</v>
       </c>
       <c r="G171">
-        <v>0.00015791145899999998</v>
+        <v>0.000158202272</v>
       </c>
       <c r="H171">
-        <v>0.00020801320020000003</v>
+        <v>0.0002083962816</v>
       </c>
     </row>
     <row r="172">
@@ -5042,16 +5042,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E172">
-        <v>12385</v>
+        <v>12386</v>
       </c>
       <c r="F172">
         <v>41113</v>
       </c>
       <c r="G172">
-        <v>0.0036017190049999993</v>
+        <v>0.0036020098179999995</v>
       </c>
       <c r="H172">
-        <v>0.004744463139</v>
+        <v>0.0047448462204</v>
       </c>
     </row>
     <row r="173">
@@ -5068,16 +5068,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E173">
-        <v>13749</v>
+        <v>13747</v>
       </c>
       <c r="F173">
         <v>45002</v>
       </c>
       <c r="G173">
-        <v>0.003998387936999999</v>
+        <v>0.003997806311</v>
       </c>
       <c r="H173">
-        <v>0.005266986168600001</v>
+        <v>0.0052662200058000005</v>
       </c>
     </row>
     <row r="174">
@@ -5120,16 +5120,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E175">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F175">
         <v>1249958</v>
       </c>
       <c r="G175">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H175">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="176">
@@ -5137,25 +5137,25 @@
         <v>3</v>
       </c>
       <c r="B176" t="str">
-        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
       </c>
       <c r="C176" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D176" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E176">
-        <v>2583</v>
+        <v>3186</v>
       </c>
       <c r="F176">
-        <v>5381</v>
+        <v>2812</v>
       </c>
       <c r="G176">
-        <v>0.0007511699789999999</v>
+        <v>0.000926530218</v>
       </c>
       <c r="H176">
-        <v>0.0009894992562</v>
+        <v>0.0012204973404000001</v>
       </c>
     </row>
     <row r="177">
@@ -5163,25 +5163,25 @@
         <v>3</v>
       </c>
       <c r="B177" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/asker.kommune.no/cabl.json</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C177" t="str">
-        <v>XHR</v>
+        <v>Document</v>
       </c>
       <c r="D177" t="str">
-        <v>application/json</v>
+        <v>text/html</v>
       </c>
       <c r="E177">
-        <v>3186</v>
+        <v>3010</v>
       </c>
       <c r="F177">
-        <v>2812</v>
+        <v>8796</v>
       </c>
       <c r="G177">
-        <v>0.000926530218</v>
+        <v>0.0008753471299999999</v>
       </c>
       <c r="H177">
-        <v>0.0012204973404000001</v>
+        <v>0.001153075014</v>
       </c>
     </row>
     <row r="178">
@@ -5189,25 +5189,25 @@
         <v>3</v>
       </c>
       <c r="B178" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
       </c>
       <c r="C178" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D178" t="str">
-        <v>text/html</v>
+        <v>application/javascript</v>
       </c>
       <c r="E178">
-        <v>3010</v>
+        <v>14470</v>
       </c>
       <c r="F178">
-        <v>8796</v>
+        <v>147236</v>
       </c>
       <c r="G178">
-        <v>0.0008753471299999999</v>
+        <v>0.00420806411</v>
       </c>
       <c r="H178">
-        <v>0.001153075014</v>
+        <v>0.0055431878580000015</v>
       </c>
     </row>
     <row r="179">
@@ -5215,25 +5215,25 @@
         <v>3</v>
       </c>
       <c r="B179" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/asker.kommune.no/no.js</v>
+        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=419&amp;luid=50d3003c-7099-8b3d-72a9-e88b3b32796e&amp;prev=1d15eb44-8ada-663e-8238-adda3afce0da&amp;rnd=3006</v>
       </c>
       <c r="C179" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D179" t="str">
-        <v>application/javascript</v>
+        <v>image/gif</v>
       </c>
       <c r="E179">
-        <v>14484</v>
+        <v>210</v>
       </c>
       <c r="F179">
-        <v>147236</v>
+        <v>34</v>
       </c>
       <c r="G179">
-        <v>0.004212135491999999</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H179">
-        <v>0.0055485509976</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="180">
@@ -5241,25 +5241,25 @@
         <v>3</v>
       </c>
       <c r="B180" t="str">
-        <v>https://6000653.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.asker.kommune.no%2F&amp;title=Startsiden%20%7C%20Asker%20kommune&amp;res=412x823&amp;accountid=6000653&amp;rt=440&amp;luid=752822d3-cb72-a0e5-5484-f70ebf4febfb&amp;prev=887617e3-d84d-c762-6a9a-bdfb929f4f07&amp;rnd=96230</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
       </c>
       <c r="C180" t="str">
-        <v>Image</v>
+        <v>Manifest</v>
       </c>
       <c r="D180" t="str">
-        <v>image/gif</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E180">
-        <v>210</v>
+        <v>771</v>
       </c>
       <c r="F180">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="G180">
-        <v>0.00006107072999999999</v>
+        <v>0.00022421682299999997</v>
       </c>
       <c r="H180">
-        <v>0.00008044709400000001</v>
+        <v>0.00029535575940000004</v>
       </c>
     </row>
     <row r="181">
@@ -5267,25 +5267,25 @@
         <v>3</v>
       </c>
       <c r="B181" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/site.webmanifest</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
       </c>
       <c r="C181" t="str">
-        <v>Manifest</v>
+        <v>Script</v>
       </c>
       <c r="D181" t="str">
-        <v>application/manifest+json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E181">
-        <v>769</v>
+        <v>31467</v>
       </c>
       <c r="F181">
-        <v>478</v>
+        <v>100355</v>
       </c>
       <c r="G181">
-        <v>0.00022363519699999997</v>
+        <v>0.009151012670999999</v>
       </c>
       <c r="H181">
-        <v>0.00029458959660000003</v>
+        <v>0.012054422413800002</v>
       </c>
     </row>
     <row r="182">
@@ -5293,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
       </c>
       <c r="C182" t="str">
         <v>Script</v>
@@ -5302,16 +5302,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E182">
-        <v>31467</v>
+        <v>752</v>
       </c>
       <c r="F182">
-        <v>100355</v>
+        <v>372</v>
       </c>
       <c r="G182">
-        <v>0.009151012670999999</v>
+        <v>0.00021869137599999996</v>
       </c>
       <c r="H182">
-        <v>0.012054422413800002</v>
+        <v>0.0002880772128000001</v>
       </c>
     </row>
     <row r="183">
@@ -5319,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/asker.js?version2.1.8</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C183" t="str">
         <v>Script</v>
@@ -5328,16 +5328,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E183">
-        <v>752</v>
+        <v>19979</v>
       </c>
       <c r="F183">
-        <v>372</v>
+        <v>60972</v>
       </c>
       <c r="G183">
-        <v>0.00021869137599999996</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H183">
-        <v>0.0002880772128000001</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="184">
@@ -5345,25 +5345,22 @@
         <v>3</v>
       </c>
       <c r="B184" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C184" t="str">
-        <v>Script</v>
+        <v>Preflight</v>
       </c>
       <c r="D184" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E184">
-        <v>19979</v>
-      </c>
-      <c r="F184">
-        <v>60972</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>0.005810152926999999</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>0.0076535832906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5374,19 +5371,22 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C185" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D185" t="str">
-        <v/>
+        <v>text/json</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>7412</v>
+      </c>
+      <c r="F185">
+        <v>28951</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="186">
@@ -5394,25 +5394,25 @@
         <v>3</v>
       </c>
       <c r="B186" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
       </c>
       <c r="C186" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D186" t="str">
-        <v>text/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E186">
-        <v>7412</v>
+        <v>10388</v>
       </c>
       <c r="F186">
-        <v>28951</v>
+        <v>25100</v>
       </c>
       <c r="G186">
-        <v>0.0021555059559999995</v>
+        <v>0.0030209654439999995</v>
       </c>
       <c r="H186">
-        <v>0.0028393993368000005</v>
+        <v>0.003979449583200001</v>
       </c>
     </row>
     <row r="187">
@@ -5420,25 +5420,25 @@
         <v>3</v>
       </c>
       <c r="B187" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-asker.svg?</v>
+        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
       </c>
       <c r="C187" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D187" t="str">
-        <v>image/svg+xml</v>
+        <v>image/webp</v>
       </c>
       <c r="E187">
-        <v>10388</v>
+        <v>1238</v>
       </c>
       <c r="F187">
-        <v>25100</v>
+        <v>826</v>
       </c>
       <c r="G187">
-        <v>0.0030209654439999995</v>
+        <v>0.000360026494</v>
       </c>
       <c r="H187">
-        <v>0.003979449583200001</v>
+        <v>0.0004742547732</v>
       </c>
     </row>
     <row r="188">
@@ -5446,25 +5446,22 @@
         <v>3</v>
       </c>
       <c r="B188" t="str">
-        <v>https://www.asker.kommune.no/UI/Favicons/Internet/favicon-32x32.png</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C188" t="str">
-        <v>Other</v>
+        <v>Preflight</v>
       </c>
       <c r="D188" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E188">
-        <v>1239</v>
-      </c>
-      <c r="F188">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>0.000360317307</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>0.00047463785459999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5475,19 +5472,22 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C189" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D189" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F189">
+        <v>96</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="190">
@@ -5495,25 +5495,25 @@
         <v>3</v>
       </c>
       <c r="B190" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.asker.kommune.no/contentassets/21d3166cd6d745eab948cf480d345d1b/logopolitical.svg</v>
       </c>
       <c r="C190" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D190" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E190">
-        <v>200</v>
+        <v>2583</v>
       </c>
       <c r="F190">
-        <v>96</v>
+        <v>5381</v>
       </c>
       <c r="G190">
-        <v>0.00005816259999999999</v>
+        <v>0.0007511699789999999</v>
       </c>
       <c r="H190">
-        <v>0.00007661628</v>
+        <v>0.0009894992562</v>
       </c>
     </row>
   </sheetData>
@@ -5552,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50276</v>
+        <v>50334</v>
       </c>
       <c r="D2">
         <v>181416</v>
@@ -5566,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>385169</v>
+        <v>385198</v>
       </c>
       <c r="D3">
         <v>379716</v>
@@ -5580,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>122142</v>
+        <v>122139</v>
       </c>
       <c r="D4">
         <v>829194</v>
@@ -5594,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="C5">
-        <v>630469</v>
+        <v>615448</v>
       </c>
       <c r="D5">
         <v>650043</v>
@@ -5608,10 +5608,10 @@
         <v>54</v>
       </c>
       <c r="C6">
-        <v>2275023</v>
+        <v>2275021</v>
       </c>
       <c r="D6">
-        <v>8005156</v>
+        <v>8005139</v>
       </c>
     </row>
     <row r="7">
@@ -5650,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="D9">
         <v>1434</v>
@@ -5678,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3717</v>
+        <v>3714</v>
       </c>
       <c r="D11">
         <v>2478</v>
@@ -5717,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1199410</v>
+        <v>1184281</v>
       </c>
       <c r="C2">
-        <v>0.34880402032999996</v>
+        <v>0.34440431045299996</v>
       </c>
       <c r="D2">
-        <v>0.459471661974</v>
+        <v>0.4536760234734</v>
       </c>
     </row>
     <row r="3">
@@ -5731,13 +5731,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1184439</v>
+        <v>1184555</v>
       </c>
       <c r="C3">
-        <v>0.344450258907</v>
+        <v>0.34448399321499995</v>
       </c>
       <c r="D3">
-        <v>0.45373655033460003</v>
+        <v>0.45378098777700004</v>
       </c>
     </row>
     <row r="4">
@@ -5745,13 +5745,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1184173</v>
+        <v>1184248</v>
       </c>
       <c r="C4">
-        <v>0.34437290264899995</v>
+        <v>0.344394713624</v>
       </c>
       <c r="D4">
-        <v>0.4536346506822</v>
+        <v>0.4536633817872001</v>
       </c>
     </row>
     <row r="5">
@@ -5759,13 +5759,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1184439</v>
+        <v>1184281</v>
       </c>
       <c r="C5">
-        <v>0.344450258907</v>
+        <v>0.34440431045299996</v>
       </c>
       <c r="D5">
-        <v>0.45373655033460003</v>
+        <v>0.4536760234734</v>
       </c>
     </row>
   </sheetData>
